--- a/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
+++ b/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\6-Associations\Unipoly\Tresorerie21-22\UP_Tresorerie_21-22\2 - Bilans\2021-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\6-Associations\Unipoly\Tresorerie21-22\UPSecretrariat\2 - Bilans\2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84AD0F-C78F-4D2E-9373-DCFA51F528F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D872FD-7CB2-4E45-B843-960BE3B3F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -697,38 +697,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,34 +760,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,9 +1091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1112,80 +1112,80 @@
     <row r="2" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="59"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="W3" s="50"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="1:23" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="52"/>
+      <c r="B4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1248,10 +1248,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
         <f>14813.98+3472.78+3833.79</f>
         <v>22120.55</v>
@@ -1266,27 +1266,27 @@
         <v>8919.0999999999985</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="39">
+      <c r="I5" s="48">
         <f>H5-H6+G5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="J5" s="27"/>
-      <c r="K5" s="39">
+      <c r="K5" s="48">
         <f>J5-J6+I5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="L5" s="27"/>
-      <c r="M5" s="39">
+      <c r="M5" s="48">
         <f>L5-L6+K5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="N5" s="27"/>
-      <c r="O5" s="39">
+      <c r="O5" s="48">
         <f>N5-N6+M5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="P5" s="27"/>
-      <c r="Q5" s="39">
+      <c r="Q5" s="48">
         <f>P5-P6+M5</f>
         <v>2037.9899999999989</v>
       </c>
@@ -1294,7 +1294,7 @@
         <f>R8+R30</f>
         <v>7306.56</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="48">
         <f>R5-R6+Q5</f>
         <v>9344.5499999999993</v>
       </c>
@@ -1302,19 +1302,21 @@
         <f>T8+T30</f>
         <v>6881.11</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="48">
         <f>T5-T6+S5</f>
         <v>16225.66</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="42">
+      <c r="V5" s="27">
+        <v>2214.0300000000002</v>
+      </c>
+      <c r="W5" s="34">
         <f>V5-V6+U5</f>
-        <v>16225.66</v>
+        <v>18439.689999999999</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="7">
         <v>5894.89</v>
       </c>
@@ -1328,32 +1330,32 @@
         <f>H7+H29</f>
         <v>6881.11</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="29"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="49"/>
       <c r="R6" s="29"/>
-      <c r="S6" s="40"/>
+      <c r="S6" s="49"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="40"/>
+      <c r="U6" s="49"/>
       <c r="V6" s="29"/>
-      <c r="W6" s="40"/>
+      <c r="W6" s="49"/>
     </row>
     <row r="7" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="34">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1361,7 +1363,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="34">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1369,7 +1371,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27</f>
         <v>3370</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="48">
         <f>H7-H8+G7</f>
         <v>3370</v>
       </c>
@@ -1377,7 +1379,7 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27</f>
         <v>2085.9499999999998</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="48">
         <f>J7-J8+I7</f>
         <v>1724.5000000000005</v>
       </c>
@@ -1385,7 +1387,7 @@
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27</f>
         <v>7231.83</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="48">
         <f>L7-L8+K7</f>
         <v>5525.48</v>
       </c>
@@ -1393,46 +1395,46 @@
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27</f>
         <v>10251.82</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="48">
         <f>N7-N8+M7</f>
         <v>11072.119999999999</v>
       </c>
       <c r="P7" s="27">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27</f>
-        <v>519.3599999999999</v>
-      </c>
-      <c r="Q7" s="39">
+        <v>370.90999999999997</v>
+      </c>
+      <c r="Q7" s="48">
         <f>P7-P8+O7</f>
-        <v>10459.439999999999</v>
+        <v>10750.199999999999</v>
       </c>
       <c r="R7" s="27">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27</f>
         <v>0</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="48">
         <f>R7-R8+Q7</f>
-        <v>10459.439999999999</v>
+        <v>10750.199999999999</v>
       </c>
       <c r="T7" s="27">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27</f>
         <v>0</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U7" s="48">
         <f>T7-T8+S7</f>
-        <v>7089.4399999999987</v>
+        <v>7380.1999999999989</v>
       </c>
       <c r="V7" s="27">
         <f>V9+V11+V13+V15+V17+V19+V21+V23+V25+V27</f>
-        <v>4688.62</v>
-      </c>
-      <c r="W7" s="45">
+        <v>12560.309999999998</v>
+      </c>
+      <c r="W7" s="50">
         <f>V7-V8+U7</f>
-        <v>6292.8399999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
@@ -1465,28 +1467,28 @@
       <c r="O8" s="33"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28</f>
-        <v>1132.04</v>
-      </c>
-      <c r="Q8" s="39"/>
+        <v>692.82999999999993</v>
+      </c>
+      <c r="Q8" s="48"/>
       <c r="R8" s="28">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28</f>
         <v>0</v>
       </c>
-      <c r="S8" s="39"/>
+      <c r="S8" s="48"/>
       <c r="T8" s="28">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28</f>
         <v>3370</v>
       </c>
-      <c r="U8" s="39"/>
+      <c r="U8" s="48"/>
       <c r="V8" s="7">
         <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28</f>
-        <v>5485.22</v>
-      </c>
-      <c r="W8" s="45"/>
+        <v>19940.509999999998</v>
+      </c>
+      <c r="W8" s="50"/>
     </row>
     <row r="9" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
@@ -1531,32 +1533,34 @@
         <v>584.07000000000016</v>
       </c>
       <c r="P9" s="6">
-        <f>COHE_Clôtures!C5</f>
-        <v>148.44999999999999</v>
-      </c>
-      <c r="Q9" s="39">
+        <f>COHE_Clôtures!E5</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="48">
         <f t="shared" ref="Q9" si="0">P9-P10+O9</f>
-        <v>293.31000000000017</v>
+        <v>584.07000000000016</v>
       </c>
       <c r="R9" s="27"/>
-      <c r="S9" s="39">
+      <c r="S9" s="48">
         <f>R9-R10+Q9</f>
-        <v>293.31000000000017</v>
+        <v>584.07000000000016</v>
       </c>
       <c r="T9" s="27"/>
-      <c r="U9" s="39">
+      <c r="U9" s="48">
         <f>T9-T10+S9</f>
-        <v>-706.68999999999983</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="45">
+        <v>-415.92999999999984</v>
+      </c>
+      <c r="V9" s="6">
+        <v>2309.38</v>
+      </c>
+      <c r="W9" s="50">
         <f>V9-V10+U9</f>
-        <v>-706.68999999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
-      <c r="C10" s="44"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="7"/>
       <c r="E10" s="33"/>
       <c r="F10" s="7"/>
@@ -1579,26 +1583,28 @@
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="7">
-        <f>COHE_Clôtures!C9</f>
-        <v>439.21</v>
-      </c>
-      <c r="Q10" s="39"/>
+        <f>COHE_Clôtures!E9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="48"/>
       <c r="R10" s="28">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="S10" s="39"/>
+      <c r="S10" s="48"/>
       <c r="T10" s="28">
         <f>H9</f>
         <v>1000</v>
       </c>
-      <c r="U10" s="39"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="45"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="7">
+        <v>1893.45</v>
+      </c>
+      <c r="W10" s="50"/>
     </row>
     <row r="11" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
@@ -1646,29 +1652,31 @@
         <f>COM_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="48">
         <f t="shared" ref="Q11" si="4">P11-P12+O11</f>
         <v>-5.1400000000000148</v>
       </c>
       <c r="R11" s="27"/>
-      <c r="S11" s="39">
+      <c r="S11" s="48">
         <f t="shared" ref="S11" si="5">R11-R12+Q11</f>
         <v>-5.1400000000000148</v>
       </c>
       <c r="T11" s="27"/>
-      <c r="U11" s="39">
+      <c r="U11" s="48">
         <f t="shared" ref="U11" si="6">T11-T12+S11</f>
         <v>-755.14</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="45">
+      <c r="V11" s="6">
+        <v>883.34</v>
+      </c>
+      <c r="W11" s="50">
         <f t="shared" ref="W11" si="7">V11-V12+U11</f>
-        <v>-755.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7"/>
       <c r="E12" s="33"/>
       <c r="F12" s="7"/>
@@ -1694,23 +1702,25 @@
         <f>COM_Clôtures!$E$5</f>
         <v>104.24</v>
       </c>
-      <c r="Q12" s="39"/>
+      <c r="Q12" s="48"/>
       <c r="R12" s="28">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="S12" s="39"/>
+      <c r="S12" s="48"/>
       <c r="T12" s="28">
         <f>H11</f>
         <v>750</v>
       </c>
-      <c r="U12" s="39"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="45"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="7">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="W12" s="50"/>
     </row>
     <row r="13" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
@@ -1758,29 +1768,31 @@
         <f>CONTRIB_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="48">
         <f t="shared" ref="Q13" si="11">P13-P14+O13</f>
         <v>-1.6000000000000085</v>
       </c>
       <c r="R13" s="27"/>
-      <c r="S13" s="39">
+      <c r="S13" s="48">
         <f t="shared" ref="S13" si="12">R13-R14+Q13</f>
         <v>-1.6000000000000085</v>
       </c>
       <c r="T13" s="27"/>
-      <c r="U13" s="39">
+      <c r="U13" s="48">
         <f t="shared" ref="U13" si="13">T13-T14+S13</f>
         <v>-171.60000000000002</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="45">
+      <c r="V13" s="6">
+        <v>171.6</v>
+      </c>
+      <c r="W13" s="50">
         <f t="shared" ref="W13" si="14">V13-V14+U13</f>
-        <v>-171.60000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="7"/>
       <c r="E14" s="33"/>
       <c r="F14" s="7"/>
@@ -1806,23 +1818,23 @@
         <f>CONTRIB_Clôtures!$E$6</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="39"/>
+      <c r="Q14" s="48"/>
       <c r="R14" s="28">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="39"/>
+      <c r="S14" s="48"/>
       <c r="T14" s="28">
         <f>H13</f>
         <v>170</v>
       </c>
-      <c r="U14" s="39"/>
+      <c r="U14" s="48"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="45"/>
+      <c r="W14" s="50"/>
     </row>
     <row r="15" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
@@ -1870,29 +1882,31 @@
         <f>EVENT_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="48">
         <f t="shared" ref="Q15" si="18">P15-P16+O15</f>
         <v>2731.6400000000003</v>
       </c>
       <c r="R15" s="27"/>
-      <c r="S15" s="39">
+      <c r="S15" s="48">
         <f t="shared" ref="S15" si="19">R15-R16+Q15</f>
         <v>2731.6400000000003</v>
       </c>
       <c r="T15" s="27"/>
-      <c r="U15" s="39">
+      <c r="U15" s="48">
         <f t="shared" ref="U15" si="20">T15-T16+S15</f>
         <v>1931.6400000000003</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="45">
+      <c r="V15" s="6">
+        <v>2442.2199999999998</v>
+      </c>
+      <c r="W15" s="50">
         <f t="shared" ref="W15" si="21">V15-V16+U15</f>
-        <v>1931.6400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="7"/>
       <c r="E16" s="33"/>
       <c r="F16" s="7"/>
@@ -1918,23 +1932,25 @@
         <f>EVENT_Clôtures!$E$12</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="39"/>
+      <c r="Q16" s="48"/>
       <c r="R16" s="28">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="S16" s="39"/>
+      <c r="S16" s="48"/>
       <c r="T16" s="28">
         <f>H15</f>
         <v>800</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="45"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="7">
+        <v>4373.8599999999997</v>
+      </c>
+      <c r="W16" s="50"/>
     </row>
     <row r="17" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
@@ -1982,31 +1998,31 @@
         <f>EXTRA_Clôtures!$E$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="48">
         <f t="shared" ref="Q17" si="25">P17-P18+O17</f>
         <v>202.02</v>
       </c>
       <c r="R17" s="27"/>
-      <c r="S17" s="39">
+      <c r="S17" s="48">
         <f t="shared" ref="S17" si="26">R17-R18+Q17</f>
         <v>202.02</v>
       </c>
       <c r="T17" s="27"/>
-      <c r="U17" s="39">
+      <c r="U17" s="48">
         <f t="shared" ref="U17" si="27">T17-T18+S17</f>
         <v>202.02</v>
       </c>
       <c r="V17" s="6">
         <v>395.9</v>
       </c>
-      <c r="W17" s="45">
+      <c r="W17" s="50">
         <f t="shared" ref="W17" si="28">V17-V18+U17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="33"/>
       <c r="F18" s="7"/>
@@ -2032,25 +2048,25 @@
         <f>EXTRA_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="39"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="28">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="39"/>
+      <c r="S18" s="48"/>
       <c r="T18" s="28">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="U18" s="39"/>
+      <c r="U18" s="48"/>
       <c r="V18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="W18" s="45"/>
+      <c r="W18" s="50"/>
     </row>
     <row r="19" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6"/>
@@ -2098,29 +2114,31 @@
         <f>FONCT_Clôtures!$E$5</f>
         <v>70</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="48">
         <f t="shared" ref="Q19" si="32">P19-P20+O19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="R19" s="27"/>
-      <c r="S19" s="39">
+      <c r="S19" s="48">
         <f t="shared" ref="S19" si="33">R19-R20+Q19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="T19" s="27"/>
-      <c r="U19" s="39">
+      <c r="U19" s="48">
         <f t="shared" ref="U19" si="34">T19-T20+S19</f>
         <v>7004.0399999999991</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="45">
+      <c r="V19" s="6">
+        <v>1055.74</v>
+      </c>
+      <c r="W19" s="50">
         <f t="shared" ref="W19" si="35">V19-V20+U19</f>
-        <v>7004.0399999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="7"/>
       <c r="E20" s="33"/>
       <c r="F20" s="7"/>
@@ -2146,23 +2164,25 @@
         <f>FONCT_Clôtures!$E$12</f>
         <v>10</v>
       </c>
-      <c r="Q20" s="39"/>
+      <c r="Q20" s="48"/>
       <c r="R20" s="28">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="39"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="28">
         <f>H19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="39"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="45"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="7">
+        <v>8059.78</v>
+      </c>
+      <c r="W20" s="50"/>
     </row>
     <row r="21" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6"/>
@@ -2210,31 +2230,31 @@
         <f>CONVER_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="48">
         <f t="shared" ref="Q21" si="39">P21-P22+O21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="R21" s="27"/>
-      <c r="S21" s="39">
+      <c r="S21" s="48">
         <f t="shared" ref="S21" si="40">R21-R22+Q21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="T21" s="27"/>
-      <c r="U21" s="39">
+      <c r="U21" s="48">
         <f t="shared" ref="U21" si="41">T21-T22+S21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="V21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="W21" s="45">
+      <c r="W21" s="50">
         <f t="shared" ref="W21" si="42">V21-V22+U21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
       <c r="E22" s="33"/>
       <c r="F22" s="7"/>
@@ -2260,25 +2280,25 @@
         <f>CONVER_Clôtures!$E$5</f>
         <v>43.6</v>
       </c>
-      <c r="Q22" s="39"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="28">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="39"/>
+      <c r="S22" s="48"/>
       <c r="T22" s="28">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="U22" s="39"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="7">
         <v>3000</v>
       </c>
-      <c r="W22" s="45"/>
+      <c r="W22" s="50"/>
     </row>
     <row r="23" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6"/>
@@ -2326,29 +2346,31 @@
         <f>LOCAL_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="48">
         <f t="shared" ref="Q23" si="46">P23-P24+O23</f>
         <v>-154.45999999999992</v>
       </c>
       <c r="R23" s="27"/>
-      <c r="S23" s="39">
+      <c r="S23" s="48">
         <f t="shared" ref="S23" si="47">R23-R24+Q23</f>
         <v>-154.45999999999992</v>
       </c>
       <c r="T23" s="27"/>
-      <c r="U23" s="39">
+      <c r="U23" s="48">
         <f t="shared" ref="U23" si="48">T23-T24+S23</f>
         <v>-654.45999999999992</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="45">
+      <c r="V23" s="6">
+        <v>654.46</v>
+      </c>
+      <c r="W23" s="50">
         <f t="shared" ref="W23" si="49">V23-V24+U23</f>
-        <v>-654.45999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7"/>
       <c r="E24" s="33"/>
       <c r="F24" s="7"/>
@@ -2374,23 +2396,23 @@
         <f>LOCAL_Clôtures!$E$8</f>
         <v>108.69</v>
       </c>
-      <c r="Q24" s="39"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="28">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="39"/>
+      <c r="S24" s="48"/>
       <c r="T24" s="28">
         <f>H23</f>
         <v>500</v>
       </c>
-      <c r="U24" s="39"/>
+      <c r="U24" s="48"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="45"/>
+      <c r="W24" s="50"/>
     </row>
     <row r="25" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6"/>
@@ -2438,29 +2460,31 @@
         <f>LOG_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="48">
         <f>P25-P26+O25</f>
         <v>-204.95</v>
       </c>
       <c r="R25" s="27"/>
-      <c r="S25" s="39">
+      <c r="S25" s="48">
         <f t="shared" ref="S25" si="53">R25-R26+Q25</f>
         <v>-204.95</v>
       </c>
       <c r="T25" s="27"/>
-      <c r="U25" s="39">
+      <c r="U25" s="48">
         <f t="shared" ref="U25" si="54">T25-T26+S25</f>
         <v>-354.95</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="45">
+      <c r="V25" s="6">
+        <v>354.95</v>
+      </c>
+      <c r="W25" s="50">
         <f t="shared" ref="W25" si="55">V25-V26+U25</f>
-        <v>-354.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7"/>
       <c r="E26" s="33"/>
       <c r="F26" s="7"/>
@@ -2486,23 +2510,23 @@
         <f>LOG_Clôtures!$E$5</f>
         <v>125.4</v>
       </c>
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="28">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="39"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="28">
         <f>H25</f>
         <v>150</v>
       </c>
-      <c r="U26" s="39"/>
+      <c r="U26" s="48"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="45"/>
+      <c r="W26" s="50"/>
     </row>
     <row r="27" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="6"/>
@@ -2550,31 +2574,31 @@
         <f>MOBILITY_Clôtures!$E$3</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="48">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="27"/>
-      <c r="S27" s="39">
+      <c r="S27" s="48">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="27"/>
-      <c r="U27" s="39">
+      <c r="U27" s="48">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
       <c r="V27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="W27" s="45">
+      <c r="W27" s="50">
         <f>V27-V28+U27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="7"/>
       <c r="E28" s="33"/>
       <c r="F28" s="7"/>
@@ -2600,32 +2624,32 @@
         <f>MOBILITY_Clôtures!$E$5</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q28" s="39"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="29">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="39"/>
+      <c r="S28" s="48"/>
       <c r="T28" s="29">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="U28" s="40"/>
+      <c r="U28" s="49"/>
       <c r="V28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="W28" s="45"/>
+      <c r="W28" s="50"/>
     </row>
     <row r="29" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="8">
         <f>D31+D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61</f>
         <v>0</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="34">
         <f>D29-D30</f>
         <v>0</v>
       </c>
@@ -2633,7 +2657,7 @@
         <f>F31+F33+F35+F37+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F39</f>
         <v>7306.56</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="34">
         <f>F29-F30</f>
         <v>7306.56</v>
       </c>
@@ -2641,7 +2665,7 @@
         <f>H31+H33+H35+H37+H41+H43+H45+H47+H49+H51+H5+H39+H533+H55+H57+H59+H61</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="34">
         <f>H29-H30+G29</f>
         <v>10817.67</v>
       </c>
@@ -2649,7 +2673,7 @@
         <f>J31+J33+J35+J37+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J39</f>
         <v>2579.4499999999998</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="34">
         <f>J29-J30+I29</f>
         <v>6426.3799999999992</v>
       </c>
@@ -2657,7 +2681,7 @@
         <f>L31+L33+L35+L37+L41+L43+L45+L47+L51+L53+L55+L57+L59+L61+L39+L49</f>
         <v>6218.03</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="34">
         <f>L29-L30+K29</f>
         <v>6544.8399999999992</v>
       </c>
@@ -2665,7 +2689,7 @@
         <f>N31+N33+N35+N37+N41+N43+N45+N47+N51+N53+N55+N57+N59+N61+N39+N49</f>
         <v>6193.96</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="34">
         <f>N29-N30+M29</f>
         <v>6989.4599999999991</v>
       </c>
@@ -2673,7 +2697,7 @@
         <f>P31+P33+P35+P37+P41+P43+P45+P47+P51+P53+P55+P57+P59+P61+P39+P49</f>
         <v>11.15</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="34">
         <f>P29-P30+O29</f>
         <v>5651.4999999999991</v>
       </c>
@@ -2681,7 +2705,7 @@
         <f>R31+R33+R35+R37+R41+R43+R45+R47+R51+R53+R55+R57+R59+R61+R39+R49</f>
         <v>0</v>
       </c>
-      <c r="S29" s="42">
+      <c r="S29" s="34">
         <f>R29-R30+Q29</f>
         <v>-1655.0600000000013</v>
       </c>
@@ -2689,7 +2713,7 @@
         <f>T31+T33+T35+T37+T41+T43+T45+T47+T51+T53+T55+T57+T59+T61+T39+T49</f>
         <v>0</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="48">
         <f>T29-T30+S29</f>
         <v>-5166.170000000001</v>
       </c>
@@ -2697,14 +2721,14 @@
         <f>V31+V33+V35+V37+V41+V43+V45+V47+V51+V53+V55+V57+V59+V61+V49+V39</f>
         <v>20168.759999999998</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="34">
         <f>V29-V30+U29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="7">
         <f>D32+D34+D36+D38+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62</f>
         <v>0</v>
@@ -2758,7 +2782,7 @@
     </row>
     <row r="31" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6"/>
@@ -2830,7 +2854,7 @@
     </row>
     <row r="32" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
-      <c r="C32" s="44"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="7"/>
       <c r="E32" s="33"/>
       <c r="F32" s="7"/>
@@ -2874,7 +2898,7 @@
     </row>
     <row r="33" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="6"/>
@@ -2946,7 +2970,7 @@
     </row>
     <row r="34" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7"/>
       <c r="E34" s="33"/>
       <c r="F34" s="7"/>
@@ -2988,7 +3012,7 @@
     </row>
     <row r="35" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="6"/>
@@ -3060,7 +3084,7 @@
     </row>
     <row r="36" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
-      <c r="C36" s="44"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7"/>
       <c r="E36" s="33"/>
       <c r="F36" s="7"/>
@@ -3104,7 +3128,7 @@
     </row>
     <row r="37" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6"/>
@@ -3171,14 +3195,14 @@
       <c r="V37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="W37" s="59">
+      <c r="W37" s="55">
         <f t="shared" ref="W37" si="84">V37-V38+U37</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
-      <c r="C38" s="44"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="7"/>
       <c r="E38" s="33"/>
       <c r="F38" s="7"/>
@@ -3218,11 +3242,11 @@
       <c r="V38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="W38" s="59"/>
+      <c r="W38" s="55"/>
     </row>
     <row r="39" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="6"/>
@@ -3294,7 +3318,7 @@
     </row>
     <row r="40" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
-      <c r="C40" s="44"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7"/>
       <c r="E40" s="33"/>
       <c r="F40" s="7"/>
@@ -3336,7 +3360,7 @@
     </row>
     <row r="41" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="6"/>
@@ -3408,7 +3432,7 @@
     </row>
     <row r="42" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7"/>
       <c r="E42" s="33"/>
       <c r="F42" s="7"/>
@@ -3452,7 +3476,7 @@
     </row>
     <row r="43" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="6"/>
@@ -3524,7 +3548,7 @@
     </row>
     <row r="44" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="44"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="7"/>
       <c r="E44" s="33"/>
       <c r="F44" s="7"/>
@@ -3568,7 +3592,7 @@
     </row>
     <row r="45" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="44"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="6"/>
       <c r="E45" s="33">
         <f>D45-D46</f>
@@ -3633,14 +3657,14 @@
       <c r="V45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="W45" s="59">
+      <c r="W45" s="55">
         <f t="shared" si="110"/>
         <v>2.2737367544323206E-13</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
-      <c r="C46" s="44"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7"/>
       <c r="E46" s="33"/>
       <c r="F46" s="7"/>
@@ -3680,11 +3704,11 @@
       <c r="V46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="W46" s="59"/>
+      <c r="W46" s="55"/>
     </row>
     <row r="47" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="6"/>
@@ -3756,7 +3780,7 @@
     </row>
     <row r="48" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
-      <c r="C48" s="44"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7"/>
       <c r="E48" s="33"/>
       <c r="F48" s="7"/>
@@ -3798,7 +3822,7 @@
     </row>
     <row r="49" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="6"/>
@@ -3870,7 +3894,7 @@
     </row>
     <row r="50" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
-      <c r="C50" s="44"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7"/>
       <c r="E50" s="33"/>
       <c r="F50" s="7"/>
@@ -3914,7 +3938,7 @@
     </row>
     <row r="51" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="6"/>
@@ -3986,7 +4010,7 @@
     </row>
     <row r="52" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
-      <c r="C52" s="44"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7"/>
       <c r="E52" s="33"/>
       <c r="F52" s="7"/>
@@ -4030,7 +4054,7 @@
     </row>
     <row r="53" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="6"/>
@@ -4090,7 +4114,7 @@
     </row>
     <row r="54" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
-      <c r="C54" s="44"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7"/>
       <c r="E54" s="33"/>
       <c r="F54" s="7"/>
@@ -4132,7 +4156,7 @@
     </row>
     <row r="55" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
-      <c r="C55" s="44"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="6"/>
       <c r="E55" s="33">
         <f>D55-D56</f>
@@ -4202,7 +4226,7 @@
     </row>
     <row r="56" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
-      <c r="C56" s="44"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="7"/>
       <c r="E56" s="33"/>
       <c r="F56" s="7"/>
@@ -4246,7 +4270,7 @@
     </row>
     <row r="57" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="6"/>
@@ -4318,7 +4342,7 @@
     </row>
     <row r="58" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
-      <c r="C58" s="44"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="7"/>
       <c r="E58" s="33"/>
       <c r="F58" s="7"/>
@@ -4362,7 +4386,7 @@
     </row>
     <row r="59" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="6"/>
@@ -4422,7 +4446,7 @@
     </row>
     <row r="60" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
-      <c r="C60" s="44"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="7"/>
       <c r="E60" s="33"/>
       <c r="F60" s="7"/>
@@ -4464,7 +4488,7 @@
     </row>
     <row r="61" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
-      <c r="C61" s="44"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="6"/>
       <c r="E61" s="33">
         <f>D61-D62</f>
@@ -4532,7 +4556,7 @@
     </row>
     <row r="62" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
-      <c r="C62" s="44"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="6"/>
       <c r="E62" s="33"/>
       <c r="F62" s="6"/>
@@ -4575,98 +4599,392 @@
       <c r="W62" s="33"/>
     </row>
     <row r="63" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="34">
+      <c r="C63" s="52"/>
+      <c r="D63" s="35">
         <f>E5+E7+E29</f>
         <v>16225.66</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34">
+      <c r="E63" s="35"/>
+      <c r="F63" s="35">
         <f>G5+G7+G29</f>
         <v>16225.66</v>
       </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34">
+      <c r="G63" s="35"/>
+      <c r="H63" s="35">
         <f>I5+I7+I29</f>
         <v>16225.66</v>
       </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34">
+      <c r="I63" s="35"/>
+      <c r="J63" s="35">
         <f>K5+K7+K29</f>
         <v>10188.869999999999</v>
       </c>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34">
+      <c r="K63" s="35"/>
+      <c r="L63" s="35">
         <f>M5+M7+M29</f>
         <v>14108.309999999998</v>
       </c>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34">
+      <c r="M63" s="35"/>
+      <c r="N63" s="35">
         <f>O5+O7+O29</f>
         <v>20099.569999999996</v>
       </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34">
+      <c r="O63" s="35"/>
+      <c r="P63" s="35">
         <f>Q5+Q7+Q29</f>
-        <v>18148.929999999997</v>
-      </c>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34">
+        <v>18439.689999999999</v>
+      </c>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35">
         <f>S5+S7+S29</f>
-        <v>18148.929999999997</v>
-      </c>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34">
+        <v>18439.689999999999</v>
+      </c>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35">
         <f>U5+U7+U29</f>
-        <v>18148.929999999997</v>
-      </c>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34">
+        <v>18439.689999999999</v>
+      </c>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35">
         <f>W5+W7+W29</f>
-        <v>22518.5</v>
-      </c>
-      <c r="W63" s="34"/>
+        <v>18439.689999999999</v>
+      </c>
+      <c r="W63" s="35"/>
     </row>
     <row r="64" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="340">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="R63:S64"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P63:Q64"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="N63:O64"/>
     <mergeCell ref="V63:W64"/>
     <mergeCell ref="C25:C26"/>
@@ -4691,311 +5009,17 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="R63:S64"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7038,7 +7062,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
+++ b/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\6-Associations\Unipoly\Tresorerie21-22\UPSecretrariat\2 - Bilans\2021-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D872FD-7CB2-4E45-B843-960BE3B3F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBCFC9-689F-4C5C-97A6-C62D6D6FF12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,12 +676,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -694,35 +688,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,41 +754,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,101 +1082,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="4" customWidth="1"/>
-    <col min="4" max="23" width="15.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" style="4" customWidth="1"/>
+    <col min="4" max="23" width="15.54296875" style="4" customWidth="1"/>
     <col min="24" max="25" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5546875" style="4" hidden="1"/>
+    <col min="26" max="16384" width="11.54296875" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="57" t="s">
+    <row r="2" spans="1:23" ht="36" customHeight="1">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1">
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="W3" s="43"/>
-    </row>
-    <row r="4" spans="1:23" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="W3" s="48"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.5">
+      <c r="B4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1243,119 +1234,119 @@
       <c r="V4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:23" ht="14.5">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="6">
         <f>14813.98+3472.78+3833.79</f>
         <v>22120.55</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="36">
         <f>D5-D6</f>
         <v>16225.66</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="33">
+      <c r="G5" s="36">
         <f>F5-F6+E5</f>
         <v>8919.0999999999985</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="48">
+      <c r="I5" s="36">
         <f>H5-H6+G5</f>
         <v>2037.9899999999989</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="48">
+      <c r="J5" s="6"/>
+      <c r="K5" s="36">
         <f>J5-J6+I5</f>
         <v>2037.9899999999989</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="48">
+      <c r="L5" s="6"/>
+      <c r="M5" s="36">
         <f>L5-L6+K5</f>
         <v>2037.9899999999989</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="48">
+      <c r="N5" s="6"/>
+      <c r="O5" s="36">
         <f>N5-N6+M5</f>
         <v>2037.9899999999989</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="48">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="36">
         <f>P5-P6+M5</f>
         <v>2037.9899999999989</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="6">
         <f>R8+R30</f>
         <v>7306.56</v>
       </c>
-      <c r="S5" s="48">
+      <c r="S5" s="36">
         <f>R5-R6+Q5</f>
         <v>9344.5499999999993</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="6">
         <f>T8+T30</f>
         <v>6881.11</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="36">
         <f>T5-T6+S5</f>
         <v>16225.66</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="39">
         <f>V5-V6+U5</f>
         <v>18439.689999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+    <row r="6" spans="1:23" ht="14.5">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="7">
         <v>5894.89</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="7">
         <f>F7+F29</f>
         <v>7306.56</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="7">
         <f>H7+H29</f>
         <v>6881.11</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="49"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="37"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.5">
+      <c r="B7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="39">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1363,7 +1354,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="39">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1371,140 +1362,140 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27</f>
         <v>3370</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="36">
         <f>H7-H8+G7</f>
         <v>3370</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="6">
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27</f>
         <v>2085.9499999999998</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="36">
         <f>J7-J8+I7</f>
         <v>1724.5000000000005</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27</f>
         <v>7231.83</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="36">
         <f>L7-L8+K7</f>
         <v>5525.48</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27</f>
         <v>10251.82</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="36">
         <f>N7-N8+M7</f>
         <v>11072.119999999999</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27</f>
         <v>370.90999999999997</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="36">
         <f>P7-P8+O7</f>
         <v>10750.199999999999</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27</f>
         <v>0</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="36">
         <f>R7-R8+Q7</f>
         <v>10750.199999999999</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27</f>
         <v>0</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="36">
         <f>T7-T8+S7</f>
         <v>7380.1999999999989</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="6">
         <f>V9+V11+V13+V15+V17+V19+V21+V23+V25+V27</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="W7" s="50">
+      <c r="W7" s="42">
         <f>V7-V8+U7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+    <row r="8" spans="1:23" ht="14.5">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28</f>
         <v>0</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28</f>
         <v>3731.4499999999994</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28</f>
         <v>3430.8500000000004</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28</f>
         <v>4705.1799999999994</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28</f>
         <v>692.82999999999993</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="28">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28</f>
         <v>0</v>
       </c>
-      <c r="S8" s="48"/>
-      <c r="T8" s="28">
+      <c r="S8" s="36"/>
+      <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28</f>
         <v>3370</v>
       </c>
-      <c r="U8" s="48"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="7">
         <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="W8" s="50"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W8" s="42"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="36">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="36">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>1000</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <f>H9-H10+G9</f>
         <v>1000</v>
       </c>
@@ -1512,7 +1503,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="36">
         <f>J9-J10+I9</f>
         <v>895.05</v>
       </c>
@@ -1520,7 +1511,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>148.44999999999999</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="36">
         <f>L9-L10+K9</f>
         <v>604.29</v>
       </c>
@@ -1528,7 +1519,7 @@
         <f>COHE_Clôtures!D5</f>
         <v>1745</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="36">
         <f>N9-N10+M9</f>
         <v>584.07000000000016</v>
       </c>
@@ -1536,91 +1527,91 @@
         <f>COHE_Clôtures!E5</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="36">
         <f t="shared" ref="Q9" si="0">P9-P10+O9</f>
         <v>584.07000000000016</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="48">
+      <c r="R9" s="6"/>
+      <c r="S9" s="36">
         <f>R9-R10+Q9</f>
         <v>584.07000000000016</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="48">
+      <c r="T9" s="6"/>
+      <c r="U9" s="36">
         <f>T9-T10+S9</f>
         <v>-415.92999999999984</v>
       </c>
       <c r="V9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="W9" s="50">
+      <c r="W9" s="42">
         <f>V9-V10+U9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>104.95</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>439.21</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>1765.2199999999998</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="7">
         <f>COHE_Clôtures!E9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="28">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="S10" s="48"/>
-      <c r="T10" s="28">
+      <c r="S10" s="36"/>
+      <c r="T10" s="7">
         <f>H9</f>
         <v>1000</v>
       </c>
-      <c r="U10" s="48"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="W10" s="50"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W10" s="42"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="36">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="36">
         <f t="shared" ref="G11" si="1">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>750</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="36">
         <f t="shared" ref="I11" si="2">H11-H12+G11</f>
         <v>750</v>
       </c>
@@ -1628,7 +1619,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>40</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="36">
         <f t="shared" ref="K11" si="3">J11-J12+I11</f>
         <v>10.899999999999977</v>
       </c>
@@ -1636,7 +1627,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>86.2</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="36">
         <f>L11-L12+K11</f>
         <v>97.09999999999998</v>
       </c>
@@ -1644,7 +1635,7 @@
         <f>COM_Clôtures!$D$3</f>
         <v>2</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="36">
         <f>N11-N12+M11</f>
         <v>99.09999999999998</v>
       </c>
@@ -1652,91 +1643,91 @@
         <f>COM_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="36">
         <f t="shared" ref="Q11" si="4">P11-P12+O11</f>
         <v>-5.1400000000000148</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="48">
+      <c r="R11" s="6"/>
+      <c r="S11" s="36">
         <f t="shared" ref="S11" si="5">R11-R12+Q11</f>
         <v>-5.1400000000000148</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="48">
+      <c r="T11" s="6"/>
+      <c r="U11" s="36">
         <f t="shared" ref="U11" si="6">T11-T12+S11</f>
         <v>-755.14</v>
       </c>
       <c r="V11" s="6">
         <v>883.34</v>
       </c>
-      <c r="W11" s="50">
+      <c r="W11" s="42">
         <f t="shared" ref="W11" si="7">V11-V12+U11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>779.1</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="7">
         <f>COM_Clôtures!$E$5</f>
         <v>104.24</v>
       </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="28">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="S12" s="48"/>
-      <c r="T12" s="28">
+      <c r="S12" s="36"/>
+      <c r="T12" s="7">
         <f>H11</f>
         <v>750</v>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="7">
         <v>128.19999999999999</v>
       </c>
-      <c r="W12" s="50"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W12" s="42"/>
+    </row>
+    <row r="13" spans="1:23" ht="14.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="36">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="36">
         <f t="shared" ref="G13" si="8">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>170</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="36">
         <f t="shared" ref="I13" si="9">H13-H14+G13</f>
         <v>170</v>
       </c>
@@ -1744,7 +1735,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="36">
         <f t="shared" ref="K13" si="10">J13-J14+I13</f>
         <v>105.15</v>
       </c>
@@ -1752,7 +1743,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="36">
         <f>L13-L14+K13</f>
         <v>30.849999999999994</v>
       </c>
@@ -1760,7 +1751,7 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="36">
         <f>N13-N14+M13</f>
         <v>-1.6000000000000085</v>
       </c>
@@ -1768,89 +1759,89 @@
         <f>CONTRIB_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="36">
         <f t="shared" ref="Q13" si="11">P13-P14+O13</f>
         <v>-1.6000000000000085</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="48">
+      <c r="R13" s="6"/>
+      <c r="S13" s="36">
         <f t="shared" ref="S13" si="12">R13-R14+Q13</f>
         <v>-1.6000000000000085</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="48">
+      <c r="T13" s="6"/>
+      <c r="U13" s="36">
         <f t="shared" ref="U13" si="13">T13-T14+S13</f>
         <v>-171.60000000000002</v>
       </c>
       <c r="V13" s="6">
         <v>171.6</v>
       </c>
-      <c r="W13" s="50">
+      <c r="W13" s="42">
         <f t="shared" ref="W13" si="14">V13-V14+U13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$6</f>
         <v>64.849999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$6</f>
         <v>74.300000000000011</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$6</f>
         <v>32.450000000000003</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="7">
         <f>CONTRIB_Clôtures!$E$6</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="28">
+      <c r="Q14" s="36"/>
+      <c r="R14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="48"/>
-      <c r="T14" s="28">
+      <c r="S14" s="36"/>
+      <c r="T14" s="7">
         <f>H13</f>
         <v>170</v>
       </c>
-      <c r="U14" s="48"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="50"/>
-    </row>
-    <row r="15" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W14" s="42"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="36">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="36">
         <f t="shared" ref="G15" si="15">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>800</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="36">
         <f t="shared" ref="I15" si="16">H15-H16+G15</f>
         <v>800</v>
       </c>
@@ -1858,7 +1849,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>522</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="36">
         <f t="shared" ref="K15" si="17">J15-J16+I15</f>
         <v>256.49</v>
       </c>
@@ -1866,7 +1857,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="36">
         <f>L15-L16+K15</f>
         <v>243.67000000000002</v>
       </c>
@@ -1874,7 +1865,7 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>3851.86</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="36">
         <f>N15-N16+M15</f>
         <v>2731.6400000000003</v>
       </c>
@@ -1882,91 +1873,91 @@
         <f>EVENT_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="36">
         <f t="shared" ref="Q15" si="18">P15-P16+O15</f>
         <v>2731.6400000000003</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="48">
+      <c r="R15" s="6"/>
+      <c r="S15" s="36">
         <f t="shared" ref="S15" si="19">R15-R16+Q15</f>
         <v>2731.6400000000003</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="48">
+      <c r="T15" s="6"/>
+      <c r="U15" s="36">
         <f t="shared" ref="U15" si="20">T15-T16+S15</f>
         <v>1931.6400000000003</v>
       </c>
       <c r="V15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="42">
         <f t="shared" ref="W15" si="21">V15-V16+U15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>1065.51</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>12.82</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>1363.8899999999999</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="7">
         <f>EVENT_Clôtures!$E$12</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="28">
+      <c r="Q16" s="36"/>
+      <c r="R16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="S16" s="48"/>
-      <c r="T16" s="28">
+      <c r="S16" s="36"/>
+      <c r="T16" s="7">
         <f>H15</f>
         <v>800</v>
       </c>
-      <c r="U16" s="48"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="W16" s="50"/>
-    </row>
-    <row r="17" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W16" s="42"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="36">
         <f t="shared" ref="G17" si="22">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="36">
         <f t="shared" ref="I17" si="23">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1974,7 +1965,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>597.85</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="36">
         <f t="shared" ref="K17" si="24">J17-J18+I17</f>
         <v>201.97000000000003</v>
       </c>
@@ -1982,7 +1973,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0.04</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="36">
         <f>L17-L18+K17</f>
         <v>202.00000000000003</v>
       </c>
@@ -1990,7 +1981,7 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0.02</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="36">
         <f>N17-N18+M17</f>
         <v>202.01000000000002</v>
       </c>
@@ -1998,91 +1989,91 @@
         <f>EXTRA_Clôtures!$E$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="36">
         <f t="shared" ref="Q17" si="25">P17-P18+O17</f>
         <v>202.02</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="48">
+      <c r="R17" s="6"/>
+      <c r="S17" s="36">
         <f t="shared" ref="S17" si="26">R17-R18+Q17</f>
         <v>202.02</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="48">
+      <c r="T17" s="6"/>
+      <c r="U17" s="36">
         <f t="shared" ref="U17" si="27">T17-T18+S17</f>
         <v>202.02</v>
       </c>
       <c r="V17" s="6">
         <v>395.9</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="42">
         <f t="shared" ref="W17" si="28">V17-V18+U17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="14.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>395.88</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0.01</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0.01</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="7">
         <f>EXTRA_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="28">
+      <c r="Q18" s="36"/>
+      <c r="R18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="28">
+      <c r="S18" s="36"/>
+      <c r="T18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="U18" s="48"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="W18" s="50"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W18" s="42"/>
+    </row>
+    <row r="19" spans="2:23" ht="14.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="36">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="36">
         <f t="shared" ref="G19" si="29">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="36">
         <f t="shared" ref="I19" si="30">H19-H20+G19</f>
         <v>0</v>
       </c>
@@ -2090,7 +2081,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>698.7</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="36">
         <f t="shared" ref="K19" si="31">J19-J20+I19</f>
         <v>196.21000000000009</v>
       </c>
@@ -2098,7 +2089,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>4445.05</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="36">
         <f>L19-L20+K19</f>
         <v>4598.66</v>
       </c>
@@ -2106,7 +2097,7 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>2846.0299999999997</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="36">
         <f>N19-N20+M19</f>
         <v>6944.0399999999991</v>
       </c>
@@ -2114,91 +2105,91 @@
         <f>FONCT_Clôtures!$E$5</f>
         <v>70</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="36">
         <f t="shared" ref="Q19" si="32">P19-P20+O19</f>
         <v>7004.0399999999991</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="48">
+      <c r="R19" s="6"/>
+      <c r="S19" s="36">
         <f t="shared" ref="S19" si="33">R19-R20+Q19</f>
         <v>7004.0399999999991</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="48">
+      <c r="T19" s="6"/>
+      <c r="U19" s="36">
         <f t="shared" ref="U19" si="34">T19-T20+S19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="V19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="42">
         <f t="shared" ref="W19" si="35">V19-V20+U19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" ht="14.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>502.48999999999995</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>42.6</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>500.65</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="7">
         <f>FONCT_Clôtures!$E$12</f>
         <v>10</v>
       </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="28">
+      <c r="Q20" s="36"/>
+      <c r="R20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="48"/>
-      <c r="T20" s="28">
+      <c r="S20" s="36"/>
+      <c r="T20" s="7">
         <f>H19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="48"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="W20" s="50"/>
-    </row>
-    <row r="21" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W20" s="42"/>
+    </row>
+    <row r="21" spans="2:23" ht="14.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="36">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="36">
         <f t="shared" ref="G21" si="36">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="36">
         <f t="shared" ref="I21" si="37">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2206,7 +2197,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="36">
         <f t="shared" ref="K21" si="38">J21-J22+I21</f>
         <v>-22.25</v>
       </c>
@@ -2214,7 +2205,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>2000</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="36">
         <f>L21-L22+K21</f>
         <v>-268.07000000000016</v>
       </c>
@@ -2222,7 +2213,7 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>1000</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="36">
         <f>N21-N22+M21</f>
         <v>638.17999999999984</v>
       </c>
@@ -2230,91 +2221,91 @@
         <f>CONVER_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="36">
         <f t="shared" ref="Q21" si="39">P21-P22+O21</f>
         <v>594.57999999999981</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="48">
+      <c r="R21" s="6"/>
+      <c r="S21" s="36">
         <f t="shared" ref="S21" si="40">R21-R22+Q21</f>
         <v>594.57999999999981</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="48">
+      <c r="T21" s="6"/>
+      <c r="U21" s="36">
         <f t="shared" ref="U21" si="41">T21-T22+S21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="V21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="W21" s="50">
+      <c r="W21" s="42">
         <f t="shared" ref="W21" si="42">V21-V22+U21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" ht="14.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>22.25</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>2245.8200000000002</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>93.75</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="7">
         <f>CONVER_Clôtures!$E$5</f>
         <v>43.6</v>
       </c>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="28">
+      <c r="Q22" s="36"/>
+      <c r="R22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="48"/>
-      <c r="T22" s="28">
+      <c r="S22" s="36"/>
+      <c r="T22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="U22" s="48"/>
+      <c r="U22" s="36"/>
       <c r="V22" s="7">
         <v>3000</v>
       </c>
-      <c r="W22" s="50"/>
-    </row>
-    <row r="23" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W22" s="42"/>
+    </row>
+    <row r="23" spans="2:23" ht="14.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="36">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="36">
         <f t="shared" ref="G23" si="43">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>500</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="36">
         <f t="shared" ref="I23" si="44">H23-H24+G23</f>
         <v>500</v>
       </c>
@@ -2322,7 +2313,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="36">
         <f t="shared" ref="K23" si="45">J23-J24+I23</f>
         <v>-27.569999999999936</v>
       </c>
@@ -2330,7 +2321,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="36">
         <f>L23-L24+K23</f>
         <v>-27.569999999999936</v>
       </c>
@@ -2338,7 +2329,7 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="36">
         <f>N23-N24+M23</f>
         <v>-45.769999999999939</v>
       </c>
@@ -2346,89 +2337,89 @@
         <f>LOCAL_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="36">
         <f t="shared" ref="Q23" si="46">P23-P24+O23</f>
         <v>-154.45999999999992</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="48">
+      <c r="R23" s="6"/>
+      <c r="S23" s="36">
         <f t="shared" ref="S23" si="47">R23-R24+Q23</f>
         <v>-154.45999999999992</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="48">
+      <c r="T23" s="6"/>
+      <c r="U23" s="36">
         <f t="shared" ref="U23" si="48">T23-T24+S23</f>
         <v>-654.45999999999992</v>
       </c>
       <c r="V23" s="6">
         <v>654.46</v>
       </c>
-      <c r="W23" s="50">
+      <c r="W23" s="42">
         <f t="shared" ref="W23" si="49">V23-V24+U23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" ht="14.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>527.56999999999994</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>18.2</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="7">
         <f>LOCAL_Clôtures!$E$8</f>
         <v>108.69</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="28">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="48"/>
-      <c r="T24" s="28">
+      <c r="S24" s="36"/>
+      <c r="T24" s="7">
         <f>H23</f>
         <v>500</v>
       </c>
-      <c r="U24" s="48"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="50"/>
-    </row>
-    <row r="25" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W24" s="42"/>
+    </row>
+    <row r="25" spans="2:23" ht="14.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="36">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="36">
         <f t="shared" ref="G25" si="50">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>150</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="36">
         <f t="shared" ref="I25" si="51">H25-H26+G25</f>
         <v>150</v>
       </c>
@@ -2436,7 +2427,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="36">
         <f t="shared" ref="K25" si="52">J25-J26+I25</f>
         <v>108.55</v>
       </c>
@@ -2444,7 +2435,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="36">
         <f>L25-L26+K25</f>
         <v>44.55</v>
       </c>
@@ -2452,7 +2443,7 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="36">
         <f>N25-N26+M25</f>
         <v>-79.55</v>
       </c>
@@ -2460,89 +2451,89 @@
         <f>LOG_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="36">
         <f>P25-P26+O25</f>
         <v>-204.95</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="48">
+      <c r="R25" s="6"/>
+      <c r="S25" s="36">
         <f t="shared" ref="S25" si="53">R25-R26+Q25</f>
         <v>-204.95</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="48">
+      <c r="T25" s="6"/>
+      <c r="U25" s="36">
         <f t="shared" ref="U25" si="54">T25-T26+S25</f>
         <v>-354.95</v>
       </c>
       <c r="V25" s="6">
         <v>354.95</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="42">
         <f t="shared" ref="W25" si="55">V25-V26+U25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" ht="14.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>41.45</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>64</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>124.1</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="7">
         <f>LOG_Clôtures!$E$5</f>
         <v>125.4</v>
       </c>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="28">
+      <c r="Q26" s="36"/>
+      <c r="R26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="48"/>
-      <c r="T26" s="28">
+      <c r="S26" s="36"/>
+      <c r="T26" s="7">
         <f>H25</f>
         <v>150</v>
       </c>
-      <c r="U26" s="48"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="50"/>
-    </row>
-    <row r="27" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W26" s="42"/>
+    </row>
+    <row r="27" spans="2:23" ht="14.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="36">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="36">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="36">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2550,7 +2541,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>227.4</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="36">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2558,7 +2549,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>552.09</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="36">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2566,7 +2557,7 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>806.91</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="36">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
@@ -2574,82 +2565,82 @@
         <f>MOBILITY_Clôtures!$E$3</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q27" s="48">
+      <c r="Q27" s="36">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="48">
+      <c r="R27" s="6"/>
+      <c r="S27" s="36">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="48">
+      <c r="T27" s="6"/>
+      <c r="U27" s="36">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
       <c r="V27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="W27" s="50">
+      <c r="W27" s="42">
         <f>V27-V28+U27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" ht="14.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="33"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>227.4</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>552.09</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>806.91</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="7">
         <f>MOBILITY_Clôtures!$E$5</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="29">
+      <c r="Q28" s="36"/>
+      <c r="R28" s="27">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="48"/>
-      <c r="T28" s="29">
+      <c r="S28" s="36"/>
+      <c r="T28" s="27">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="U28" s="49"/>
+      <c r="U28" s="37"/>
       <c r="V28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="W28" s="50"/>
-    </row>
-    <row r="29" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="2:23" ht="14.5">
+      <c r="B29" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="8">
         <f>D31+D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61</f>
         <v>0</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="39">
         <f>D29-D30</f>
         <v>0</v>
       </c>
@@ -2657,7 +2648,7 @@
         <f>F31+F33+F35+F37+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F39</f>
         <v>7306.56</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="39">
         <f>F29-F30</f>
         <v>7306.56</v>
       </c>
@@ -2665,7 +2656,7 @@
         <f>H31+H33+H35+H37+H41+H43+H45+H47+H49+H51+H5+H39+H533+H55+H57+H59+H61</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="39">
         <f>H29-H30+G29</f>
         <v>10817.67</v>
       </c>
@@ -2673,7 +2664,7 @@
         <f>J31+J33+J35+J37+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J39</f>
         <v>2579.4499999999998</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="39">
         <f>J29-J30+I29</f>
         <v>6426.3799999999992</v>
       </c>
@@ -2681,7 +2672,7 @@
         <f>L31+L33+L35+L37+L41+L43+L45+L47+L51+L53+L55+L57+L59+L61+L39+L49</f>
         <v>6218.03</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="39">
         <f>L29-L30+K29</f>
         <v>6544.8399999999992</v>
       </c>
@@ -2689,7 +2680,7 @@
         <f>N31+N33+N35+N37+N41+N43+N45+N47+N51+N53+N55+N57+N59+N61+N39+N49</f>
         <v>6193.96</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="39">
         <f>N29-N30+M29</f>
         <v>6989.4599999999991</v>
       </c>
@@ -2697,23 +2688,23 @@
         <f>P31+P33+P35+P37+P41+P43+P45+P47+P51+P53+P55+P57+P59+P61+P39+P49</f>
         <v>11.15</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="39">
         <f>P29-P30+O29</f>
         <v>5651.4999999999991</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="6">
         <f>R31+R33+R35+R37+R41+R43+R45+R47+R51+R53+R55+R57+R59+R61+R39+R49</f>
         <v>0</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="39">
         <f>R29-R30+Q29</f>
         <v>-1655.0600000000013</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="6">
         <f>T31+T33+T35+T37+T41+T43+T45+T47+T51+T53+T55+T57+T59+T61+T39+T49</f>
         <v>0</v>
       </c>
-      <c r="U29" s="48">
+      <c r="U29" s="36">
         <f>T29-T30+S29</f>
         <v>-5166.170000000001</v>
       </c>
@@ -2721,84 +2712,84 @@
         <f>V31+V33+V35+V37+V41+V43+V45+V47+V51+V53+V55+V57+V59+V61+V49+V39</f>
         <v>20168.759999999998</v>
       </c>
-      <c r="W29" s="34">
+      <c r="W29" s="39">
         <f>V29-V30+U29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
+    <row r="30" spans="2:23" ht="14.5">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="7">
         <f>D32+D34+D36+D38+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62</f>
         <v>0</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="7">
         <f>F32+F34+F36+F38+F42+F44+F46+F48+F50+F52+F54+F56++F40+F58+F60+F62</f>
         <v>0</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="7">
         <f>H32+H34+H36+H38+H42+H44+H46+H48+H50+H52+H54+H40+H56+H58+H60+H56+H62</f>
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="7">
         <f>J32+J34+J36+J38+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J40+J62</f>
         <v>6970.7400000000007</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="7">
         <f>L32+L34+L36+L38+L42+L44+L46+L48+L52+L54+L56+L58+L60+L62+L40+L50</f>
         <v>6099.57</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="7">
         <f>N32+N34+N36+N38+N42+N44+N46+N48+N52+N54+N56+N58+N60+N62+N40+N50</f>
         <v>5749.34</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="36"/>
       <c r="P30" s="7">
         <f>P32+P34+P36+P38+P42+P44+P46+P48+P52+P54+P56+P58+P60+P62+P40+P50</f>
         <v>1349.11</v>
       </c>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="36"/>
       <c r="R30" s="7">
         <f>R32+R34+R36+R38+R42+R44+R46+R48+R52+R54+R56+R58+R60+R62+R40+R50</f>
         <v>7306.56</v>
       </c>
-      <c r="S30" s="33"/>
+      <c r="S30" s="36"/>
       <c r="T30" s="7">
         <f>T32+T34+T36+T38+T42+T44+T46+T48+T52+T54+T56+T58+T60+T62+T40+T50</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="U30" s="33"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="7">
         <f>V32+V34+V36+V38+V42+V44+V46+V48+V52+V54+V56+V58+V60+V62+V40+V50</f>
         <v>15002.59</v>
       </c>
-      <c r="W30" s="33"/>
-    </row>
-    <row r="31" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W30" s="36"/>
+    </row>
+    <row r="31" spans="2:23" ht="14.5">
       <c r="B31" s="9"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="33">
+      <c r="E31" s="36">
         <f>D31-D32</f>
         <v>0</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="33">
+      <c r="G31" s="36">
         <f>F31-F32+E31</f>
         <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>47.5</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="36">
         <f>H31-H32+G31</f>
         <v>47.5</v>
       </c>
@@ -2806,7 +2797,7 @@
         <f>ACHATS_Clôtures!$B$2</f>
         <v>32.5</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="36">
         <f>J31-J32+I31</f>
         <v>-598.65</v>
       </c>
@@ -2814,7 +2805,7 @@
         <f>ACHATS_Clôtures!$C$2</f>
         <v>42.1</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="36">
         <f>L31-L32+K31</f>
         <v>-598.65</v>
       </c>
@@ -2822,7 +2813,7 @@
         <f>ACHATS_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="36">
         <f>N31-N32+M31</f>
         <v>-598.65</v>
       </c>
@@ -2830,91 +2821,91 @@
         <f>ACHATS_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="36">
         <f t="shared" ref="Q31" si="56">P31-P32+O31</f>
         <v>-598.65</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="33">
+      <c r="S31" s="36">
         <f>R31-R32+Q31</f>
         <v>-598.65</v>
       </c>
       <c r="T31" s="6"/>
-      <c r="U31" s="33">
+      <c r="U31" s="36">
         <f t="shared" ref="U31" si="57">T31-T32+S31</f>
         <v>-646.15</v>
       </c>
       <c r="V31" s="6">
         <v>720.75</v>
       </c>
-      <c r="W31" s="33">
+      <c r="W31" s="36">
         <f>V31-V32+U31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" ht="14.5">
       <c r="B32" s="9"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="7">
         <f>ACHATS_Clôtures!$B$4</f>
         <v>678.65</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="7">
         <f>ACHATS_Clôtures!$C$4</f>
         <v>42.1</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="7">
         <f>ACHATS_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="36"/>
       <c r="P32" s="7">
         <f>ACHATS_Clôtures!$E$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="36"/>
       <c r="R32" s="7">
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="7">
         <f>H31</f>
         <v>47.5</v>
       </c>
-      <c r="U32" s="33"/>
+      <c r="U32" s="36"/>
       <c r="V32" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="W32" s="33"/>
-    </row>
-    <row r="33" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W32" s="36"/>
+    </row>
+    <row r="33" spans="2:23" ht="14.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="33">
+      <c r="E33" s="36">
         <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="33">
+      <c r="G33" s="36">
         <f t="shared" ref="G33" si="58">F33-F34+E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="6">
         <v>700</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="36">
         <f t="shared" ref="I33" si="59">H33-H34+G33</f>
         <v>700</v>
       </c>
@@ -2922,7 +2913,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="36">
         <f t="shared" ref="K33" si="60">J33-J34+I33</f>
         <v>700</v>
       </c>
@@ -2930,7 +2921,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="36">
         <f t="shared" ref="M33" si="61">L33-L34+K33</f>
         <v>700</v>
       </c>
@@ -2938,7 +2929,7 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="36">
         <f t="shared" ref="O33" si="62">N33-N34+M33</f>
         <v>-208.32000000000005</v>
       </c>
@@ -2946,89 +2937,89 @@
         <f>API_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="36">
         <f t="shared" ref="Q33" si="63">P33-P34+O33</f>
         <v>-217.79000000000005</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33">
+      <c r="S33" s="36">
         <f t="shared" ref="S33" si="64">R33-R34+Q33</f>
         <v>-217.79000000000005</v>
       </c>
       <c r="T33" s="6"/>
-      <c r="U33" s="33">
+      <c r="U33" s="36">
         <f t="shared" ref="U33" si="65">T33-T34+S33</f>
         <v>-917.79000000000008</v>
       </c>
       <c r="V33" s="6">
         <v>917.79</v>
       </c>
-      <c r="W33" s="33">
+      <c r="W33" s="36">
         <f t="shared" ref="W33" si="66">V33-V34+U33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" ht="14.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="33"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>908.32</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="7">
         <f>API_Clôtures!$E$5</f>
         <v>9.4700000000000006</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="36"/>
       <c r="R34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="36"/>
       <c r="T34" s="7">
         <f>H33</f>
         <v>700</v>
       </c>
-      <c r="U34" s="33"/>
+      <c r="U34" s="36"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="33"/>
-    </row>
-    <row r="35" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W34" s="36"/>
+    </row>
+    <row r="35" spans="2:23" ht="14.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="33">
+      <c r="E35" s="36">
         <f>D35-D36</f>
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="33">
+      <c r="G35" s="36">
         <f t="shared" ref="G35" si="67">F35-F36+E35</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>1851.35</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="36">
         <f t="shared" ref="I35" si="68">H35-H36+G35</f>
         <v>1851.35</v>
       </c>
@@ -3036,7 +3027,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="36">
         <f t="shared" ref="K35" si="69">J35-J36+I35</f>
         <v>-177.05000000000018</v>
       </c>
@@ -3044,7 +3035,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>220.9</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="36">
         <f t="shared" ref="M35" si="70">L35-L36+K35</f>
         <v>43.849999999999824</v>
       </c>
@@ -3052,7 +3043,7 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>411.65</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="36">
         <f t="shared" ref="O35" si="71">N35-N36+M35</f>
         <v>20.69999999999979</v>
       </c>
@@ -3060,93 +3051,93 @@
         <f>CANARD_Clôtures!$E$4</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="36">
         <f t="shared" ref="Q35" si="72">P35-P36+O35</f>
         <v>29.99999999999979</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33">
+      <c r="S35" s="36">
         <f t="shared" ref="S35" si="73">R35-R36+Q35</f>
         <v>29.99999999999979</v>
       </c>
       <c r="T35" s="6"/>
-      <c r="U35" s="33">
+      <c r="U35" s="36">
         <f t="shared" ref="U35" si="74">T35-T36+S35</f>
         <v>-1821.3500000000001</v>
       </c>
       <c r="V35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="W35" s="33">
+      <c r="W35" s="36">
         <f t="shared" ref="W35" si="75">V35-V36+U35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" ht="14.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>2028.4</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>434.8</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="7">
         <f>CANARD_Clôtures!$E$6</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="36"/>
       <c r="R36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="36"/>
       <c r="T36" s="7">
         <f>H35</f>
         <v>1851.35</v>
       </c>
-      <c r="U36" s="33"/>
+      <c r="U36" s="36"/>
       <c r="V36" s="7">
         <v>641.85</v>
       </c>
-      <c r="W36" s="33"/>
-    </row>
-    <row r="37" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W36" s="36"/>
+    </row>
+    <row r="37" spans="2:23" ht="14.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="33">
+      <c r="E37" s="36">
         <f>D37-D38</f>
         <v>0</v>
       </c>
       <c r="F37" s="6">
         <v>3472.78</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="36">
         <f t="shared" ref="G37" si="76">F37-F38+E37</f>
         <v>3472.78</v>
       </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="36">
         <f t="shared" ref="I37" si="77">H37-H38+G37</f>
         <v>3472.78</v>
       </c>
@@ -3154,7 +3145,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>920.45</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="36">
         <f t="shared" ref="K37" si="78">J37-J38+I37</f>
         <v>3576</v>
       </c>
@@ -3162,7 +3153,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>730.98</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="36">
         <f t="shared" ref="M37" si="79">L37-L38+K37</f>
         <v>4070.46</v>
       </c>
@@ -3170,7 +3161,7 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>727.86</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="36">
         <f t="shared" ref="O37" si="80">N37-N38+M37</f>
         <v>4420.1499999999996</v>
       </c>
@@ -3178,91 +3169,91 @@
         <f>CASTOR_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="36">
         <f t="shared" ref="Q37" si="81">P37-P38+O37</f>
         <v>4406.3399999999992</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33">
+      <c r="S37" s="36">
         <f t="shared" ref="S37" si="82">R37-R38+Q37</f>
         <v>933.55999999999904</v>
       </c>
       <c r="T37" s="6"/>
-      <c r="U37" s="33">
+      <c r="U37" s="36">
         <f t="shared" ref="U37" si="83">T37-T38+S37</f>
         <v>933.55999999999904</v>
       </c>
       <c r="V37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="W37" s="55">
+      <c r="W37" s="43">
         <f t="shared" ref="W37" si="84">V37-V38+U37</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" ht="14.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="37"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>817.23</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>236.52</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>378.17</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="36"/>
       <c r="P38" s="7">
         <f>CASTOR_Clôtures!$E$5</f>
         <v>13.81</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="36"/>
       <c r="R38" s="7">
         <f>F37</f>
         <v>3472.78</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="36"/>
       <c r="T38" s="7">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="U38" s="33"/>
+      <c r="U38" s="36"/>
       <c r="V38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="W38" s="55"/>
-    </row>
-    <row r="39" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W38" s="43"/>
+    </row>
+    <row r="39" spans="2:23" ht="14.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="33">
+      <c r="E39" s="36">
         <f>D39-D40</f>
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="33">
+      <c r="G39" s="36">
         <f t="shared" ref="G39" si="85">F39-F40+E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="36">
         <f t="shared" ref="I39" si="86">H39-H40+G39</f>
         <v>0</v>
       </c>
@@ -3270,7 +3261,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="36">
         <f t="shared" ref="K39" si="87">J39-J40+I39</f>
         <v>-107.7</v>
       </c>
@@ -3278,7 +3269,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="36">
         <f t="shared" ref="M39" si="88">L39-L40+K39</f>
         <v>-107.7</v>
       </c>
@@ -3286,7 +3277,7 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="36">
         <f t="shared" ref="O39" si="89">N39-N40+M39</f>
         <v>-128.69999999999999</v>
       </c>
@@ -3294,89 +3285,89 @@
         <f>DEBOUC_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="36">
         <f t="shared" ref="Q39" si="90">P39-P40+O39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33">
+      <c r="S39" s="36">
         <f t="shared" ref="S39" si="91">R39-R40+Q39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="T39" s="6"/>
-      <c r="U39" s="33">
+      <c r="U39" s="36">
         <f t="shared" ref="U39" si="92">T39-T40+S39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="V39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="W39" s="33">
+      <c r="W39" s="36">
         <f t="shared" ref="W39" si="93">V39-V40+U39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" ht="14.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="33"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>107.7</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>21</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="36"/>
       <c r="P40" s="7">
         <f>DEBOUC_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="36"/>
       <c r="R40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="36"/>
       <c r="T40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="U40" s="33"/>
+      <c r="U40" s="36"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="33"/>
-    </row>
-    <row r="41" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W40" s="36"/>
+    </row>
+    <row r="41" spans="2:23" ht="14.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="33">
+      <c r="E41" s="36">
         <f>D41-D42</f>
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="36">
         <f t="shared" ref="G41" si="94">F41-F42+E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
         <v>50</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="36">
         <f t="shared" ref="I41" si="95">H41-H42+G41</f>
         <v>50</v>
       </c>
@@ -3384,7 +3375,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="36">
         <f t="shared" ref="K41" si="96">J41-J42+I41</f>
         <v>30</v>
       </c>
@@ -3392,7 +3383,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="36">
         <f t="shared" ref="M41" si="97">L41-L42+K41</f>
         <v>30</v>
       </c>
@@ -3400,7 +3391,7 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>114.95</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="36">
         <f t="shared" ref="O41" si="98">N41-N42+M41</f>
         <v>83.050000000000011</v>
       </c>
@@ -3408,91 +3399,91 @@
         <f>EVA_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="36">
         <f t="shared" ref="Q41" si="99">P41-P42+O41</f>
         <v>83.050000000000011</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33">
+      <c r="S41" s="36">
         <f t="shared" ref="S41" si="100">R41-R42+Q41</f>
         <v>83.050000000000011</v>
       </c>
       <c r="T41" s="6"/>
-      <c r="U41" s="33">
+      <c r="U41" s="36">
         <f t="shared" ref="U41" si="101">T41-T42+S41</f>
         <v>33.050000000000011</v>
       </c>
       <c r="V41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="W41" s="33">
+      <c r="W41" s="36">
         <f t="shared" ref="W41" si="102">V41-V42+U41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" ht="14.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>20</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>61.9</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="36"/>
       <c r="P42" s="7">
         <f>EVA_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="36"/>
       <c r="R42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="36"/>
       <c r="T42" s="7">
         <f>H41</f>
         <v>50</v>
       </c>
-      <c r="U42" s="33"/>
+      <c r="U42" s="36"/>
       <c r="V42" s="7">
         <v>114.95</v>
       </c>
-      <c r="W42" s="33"/>
-    </row>
-    <row r="43" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W42" s="36"/>
+    </row>
+    <row r="43" spans="2:23" ht="14.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="36">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="36">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="36">
         <f t="shared" ref="I43" si="103">H43-H44+G43</f>
         <v>0</v>
       </c>
@@ -3500,7 +3491,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>113.1</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="36">
         <f t="shared" ref="K43" si="104">J43-J44+I43</f>
         <v>80.75</v>
       </c>
@@ -3508,7 +3499,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="36">
         <f t="shared" ref="M43" si="105">L43-L44+K43</f>
         <v>80.75</v>
       </c>
@@ -3516,7 +3507,7 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>32.450000000000003</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="36">
         <f t="shared" ref="O43" si="106">N43-N44+M43</f>
         <v>-235.65000000000003</v>
       </c>
@@ -3524,91 +3515,91 @@
         <f>EPILIBRE_Clôtures!E2</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="33">
+      <c r="Q43" s="36">
         <f t="shared" ref="Q43" si="107">P43-P44+O43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33">
+      <c r="S43" s="36">
         <f t="shared" ref="S43" si="108">R43-R44+Q43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="T43" s="6"/>
-      <c r="U43" s="33">
+      <c r="U43" s="36">
         <f t="shared" ref="U43" si="109">T43-T44+S43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="V43" s="6">
         <v>351.1</v>
       </c>
-      <c r="W43" s="33">
+      <c r="W43" s="36">
         <f t="shared" ref="W43:W45" si="110">V43-V44+U43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" ht="14.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="37"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>32.35</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>348.85</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="36"/>
       <c r="P44" s="7">
         <f>EPILIBRE_Clôtures!E5</f>
         <v>-62.3</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="36"/>
       <c r="R44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="36"/>
       <c r="T44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="U44" s="33"/>
+      <c r="U44" s="36"/>
       <c r="V44" s="7">
         <v>177.75</v>
       </c>
-      <c r="W44" s="33"/>
-    </row>
-    <row r="45" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W44" s="36"/>
+    </row>
+    <row r="45" spans="2:23" ht="14.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="36">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6">
         <v>3833.78</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="36">
         <f>F45-F46+E45</f>
         <v>3833.78</v>
       </c>
       <c r="H45" s="6">
         <v>0</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="36">
         <f t="shared" ref="I45" si="111">H45-H46+G45</f>
         <v>3833.78</v>
       </c>
@@ -3616,7 +3607,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>607.4</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="36">
         <f t="shared" ref="K45" si="112">J45-J46+I45</f>
         <v>4102.18</v>
       </c>
@@ -3624,7 +3615,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>559.65</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="36">
         <f t="shared" ref="M45" si="113">L45-L46+K45</f>
         <v>3902.2300000000005</v>
       </c>
@@ -3632,7 +3623,7 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>600.42999999999995</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="36">
         <f t="shared" ref="O45" si="114">N45-N46+M45</f>
         <v>4012.9800000000005</v>
       </c>
@@ -3640,91 +3631,91 @@
         <f>EPILIBRE_Clôtures!E3</f>
         <v>1.85</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="36">
         <f t="shared" ref="Q45" si="115">P45-P46+O45</f>
         <v>4014.8300000000004</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33">
+      <c r="S45" s="36">
         <f t="shared" ref="S45" si="116">R45-R46+Q45</f>
         <v>181.05000000000018</v>
       </c>
       <c r="T45" s="6"/>
-      <c r="U45" s="33">
+      <c r="U45" s="36">
         <f t="shared" ref="U45" si="117">T45-T46+S45</f>
         <v>181.05000000000018</v>
       </c>
       <c r="V45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="W45" s="55">
+      <c r="W45" s="43">
         <f t="shared" si="110"/>
         <v>2.2737367544323206E-13</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" ht="14.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="33"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>339</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>759.6</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>489.68</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="7">
         <f>EPILIBRE_Clôtures!E6</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="36"/>
       <c r="R46" s="7">
         <f>F45</f>
         <v>3833.78</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="36"/>
       <c r="T46" s="7">
         <f>H45</f>
         <v>0</v>
       </c>
-      <c r="U46" s="33"/>
+      <c r="U46" s="36"/>
       <c r="V46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="W46" s="55"/>
-    </row>
-    <row r="47" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W46" s="43"/>
+    </row>
+    <row r="47" spans="2:23" ht="14.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="36">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
+      <c r="G47" s="36">
         <f t="shared" ref="G47" si="118">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>44.21</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="36">
         <f t="shared" ref="I47" si="119">H47-H48+G47</f>
         <v>44.21</v>
       </c>
@@ -3732,7 +3723,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="36">
         <f t="shared" ref="K47" si="120">J47-J48+I47</f>
         <v>0</v>
       </c>
@@ -3740,7 +3731,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="36">
         <f t="shared" ref="M47" si="121">L47-L48+K47</f>
         <v>-27.5</v>
       </c>
@@ -3748,7 +3739,7 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="36">
         <f t="shared" ref="O47" si="122">N47-N48+M47</f>
         <v>-27.5</v>
       </c>
@@ -3756,89 +3747,89 @@
         <f>IE_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="Q47" s="36">
         <f t="shared" ref="Q47" si="123">P47-P48+O47</f>
         <v>-27.5</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33">
+      <c r="S47" s="36">
         <f t="shared" ref="S47" si="124">R47-R48+Q47</f>
         <v>-27.5</v>
       </c>
       <c r="T47" s="6"/>
-      <c r="U47" s="33">
+      <c r="U47" s="36">
         <f t="shared" ref="U47" si="125">T47-T48+S47</f>
         <v>-71.710000000000008</v>
       </c>
       <c r="V47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="W47" s="33">
+      <c r="W47" s="36">
         <f t="shared" ref="W47" si="126">V47-V48+U47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" ht="14.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="33"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>44.21</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>27.5</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="7">
         <f>IE_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="36"/>
       <c r="R48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="36"/>
       <c r="T48" s="7">
         <f>H47</f>
         <v>44.21</v>
       </c>
-      <c r="U48" s="33"/>
+      <c r="U48" s="36"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="33"/>
-    </row>
-    <row r="49" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W48" s="36"/>
+    </row>
+    <row r="49" spans="2:23" ht="14.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="36">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
+      <c r="G49" s="36">
         <f t="shared" ref="G49" si="127">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="36">
         <f t="shared" ref="I49" si="128">H49-H50+G49</f>
         <v>0</v>
       </c>
@@ -3846,7 +3837,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="36">
         <f t="shared" ref="K49" si="129">J49-J50+I49</f>
         <v>-292.47000000000003</v>
       </c>
@@ -3854,7 +3845,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="36">
         <f t="shared" ref="M49" si="130">L49-L50+K49</f>
         <v>-292.47000000000003</v>
       </c>
@@ -3862,7 +3853,7 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>282.39999999999998</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="36">
         <f t="shared" ref="O49" si="131">N49-N50+M49</f>
         <v>-10.07000000000005</v>
       </c>
@@ -3870,91 +3861,91 @@
         <f>LOWTECH_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="36">
         <f t="shared" ref="Q49" si="132">P49-P50+O49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33">
+      <c r="S49" s="36">
         <f t="shared" ref="S49" si="133">R49-R50+Q49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="T49" s="6"/>
-      <c r="U49" s="33">
+      <c r="U49" s="36">
         <f t="shared" ref="U49" si="134">T49-T50+S49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="V49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="W49" s="33">
+      <c r="W49" s="36">
         <f t="shared" ref="W49" si="135">V49-V50+U49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:23" ht="14.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="33"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="7">
         <f>LOWTECH_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="36"/>
       <c r="R50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="36"/>
       <c r="T50" s="7">
         <f>H49</f>
         <v>0</v>
       </c>
-      <c r="U50" s="33"/>
+      <c r="U50" s="36"/>
       <c r="V50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="W50" s="33"/>
-    </row>
-    <row r="51" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W50" s="36"/>
+    </row>
+    <row r="51" spans="2:23" ht="14.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="36">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
+      <c r="G51" s="36">
         <f t="shared" ref="G51" si="136">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>818.05</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="36">
         <f t="shared" ref="I51" si="137">H51-H52+G51</f>
         <v>818.05</v>
       </c>
@@ -3962,7 +3953,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="36">
         <f t="shared" ref="K51" si="138">J51-J52+I51</f>
         <v>-100</v>
       </c>
@@ -3970,7 +3961,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="36">
         <f t="shared" ref="M51" si="139">L51-L52+K51</f>
         <v>-107.6</v>
       </c>
@@ -3978,7 +3969,7 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>212</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="36">
         <f t="shared" ref="O51" si="140">N51-N52+M51</f>
         <v>49.200000000000017</v>
       </c>
@@ -3986,191 +3977,191 @@
         <f>JARDIN_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="33">
+      <c r="Q51" s="36">
         <f t="shared" ref="Q51" si="141">P51-P52+O51</f>
         <v>7.2500000000000142</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33">
+      <c r="S51" s="36">
         <f t="shared" ref="S51" si="142">R51-R52+Q51</f>
         <v>7.2500000000000142</v>
       </c>
       <c r="T51" s="6"/>
-      <c r="U51" s="33">
+      <c r="U51" s="36">
         <f t="shared" ref="U51" si="143">T51-T52+S51</f>
         <v>-810.8</v>
       </c>
       <c r="V51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="W51" s="33">
+      <c r="W51" s="36">
         <f t="shared" ref="W51" si="144">V51-V52+U51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:23" ht="14.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>918.05</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="36"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>7.6</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>55.2</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="36"/>
       <c r="P52" s="7">
         <f>JARDIN_Clôtures!$E$5</f>
         <v>41.95</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="36"/>
       <c r="R52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="36"/>
       <c r="T52" s="7">
         <f>H51</f>
         <v>818.05</v>
       </c>
-      <c r="U52" s="33"/>
+      <c r="U52" s="36"/>
       <c r="V52" s="7">
         <v>212</v>
       </c>
-      <c r="W52" s="33"/>
-    </row>
-    <row r="53" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W52" s="36"/>
+    </row>
+    <row r="53" spans="2:23" ht="14.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="36">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
+      <c r="G53" s="36">
         <f t="shared" ref="G53" si="145">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="36">
         <f t="shared" ref="I53" si="146">H53-H54+G53</f>
         <v>0</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="33">
+      <c r="K53" s="36">
         <f t="shared" ref="K53" si="147">J53-J54+I53</f>
         <v>-766.33</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="33">
+      <c r="M53" s="36">
         <f t="shared" ref="M53" si="148">L53-L54+K53</f>
         <v>-1179.1200000000001</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="33">
+      <c r="O53" s="36">
         <f t="shared" ref="O53" si="149">N53-N54+M53</f>
         <v>-1229.1200000000001</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33">
+      <c r="Q53" s="36">
         <f t="shared" ref="Q53" si="150">P53-P54+O53</f>
         <v>-1456.25</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33">
+      <c r="S53" s="36">
         <f t="shared" ref="S53" si="151">R53-R54+Q53</f>
         <v>-1456.25</v>
       </c>
       <c r="T53" s="6"/>
-      <c r="U53" s="33">
+      <c r="U53" s="36">
         <f t="shared" ref="U53" si="152">T53-T54+S53</f>
         <v>-1456.25</v>
       </c>
       <c r="V53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="W53" s="33">
+      <c r="W53" s="36">
         <f t="shared" ref="W53" si="153">V53-V54+U53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:23" ht="14.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="33"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$4</f>
         <v>766.33</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="36"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$4</f>
         <v>412.79</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$4</f>
         <v>50</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="36"/>
       <c r="P54" s="7">
         <f>MEUBLE_Clôtures!$E$4</f>
         <v>227.13</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="36"/>
       <c r="R54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="36"/>
       <c r="T54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="U54" s="33"/>
+      <c r="U54" s="36"/>
       <c r="V54" s="7"/>
-      <c r="W54" s="33"/>
-    </row>
-    <row r="55" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W54" s="36"/>
+    </row>
+    <row r="55" spans="2:23" ht="14.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="37"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="36">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
+      <c r="G55" s="36">
         <f t="shared" ref="G55" si="154">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="36">
         <f t="shared" ref="I55" si="155">H55-H56+G55</f>
         <v>0</v>
       </c>
@@ -4178,7 +4169,7 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="36">
         <f t="shared" ref="K55" si="156">J55-J56+I55</f>
         <v>-35</v>
       </c>
@@ -4186,7 +4177,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>629.20000000000005</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="36">
         <f t="shared" ref="M55" si="157">L55-L56+K55</f>
         <v>124.20000000000005</v>
       </c>
@@ -4194,7 +4185,7 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="36">
         <f t="shared" ref="O55" si="158">N55-N56+M55</f>
         <v>124.20000000000005</v>
       </c>
@@ -4202,91 +4193,91 @@
         <f>MEUBLE_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="36">
         <f t="shared" ref="Q55" si="159">P55-P56+O55</f>
         <v>-915.8</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33">
+      <c r="S55" s="36">
         <f t="shared" ref="S55" si="160">R55-R56+Q55</f>
         <v>-915.8</v>
       </c>
       <c r="T55" s="6"/>
-      <c r="U55" s="33">
+      <c r="U55" s="36">
         <f t="shared" ref="U55" si="161">T55-T56+S55</f>
         <v>-915.8</v>
       </c>
       <c r="V55" s="6">
         <v>1545</v>
       </c>
-      <c r="W55" s="33">
+      <c r="W55" s="36">
         <f t="shared" ref="W55" si="162">V55-V56+U55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:23" ht="14.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="37"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>35</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="36"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>470</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="36"/>
       <c r="P56" s="7">
         <f>MEUBLE_Clôtures!$E$5</f>
         <v>1040</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="36"/>
       <c r="R56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="36"/>
       <c r="T56" s="7">
         <f>H55</f>
         <v>0</v>
       </c>
-      <c r="U56" s="33"/>
+      <c r="U56" s="36"/>
       <c r="V56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="W56" s="33"/>
-    </row>
-    <row r="57" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W56" s="36"/>
+    </row>
+    <row r="57" spans="2:23" ht="14.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="36">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
+      <c r="G57" s="36">
         <f t="shared" ref="G57" si="163">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="36">
         <f t="shared" ref="I57" si="164">H57-H58+G57</f>
         <v>0</v>
       </c>
@@ -4294,7 +4285,7 @@
         <f>DUDU_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="36">
         <f t="shared" ref="K57" si="165">J57-J58+I57</f>
         <v>-41.25</v>
       </c>
@@ -4302,7 +4293,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>3000</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="36">
         <f t="shared" ref="M57" si="166">L57-L58+K57</f>
         <v>-989.7800000000002</v>
       </c>
@@ -4310,7 +4301,7 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>3506.55</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="36">
         <f t="shared" ref="O57" si="167">N57-N58+M57</f>
         <v>0</v>
       </c>
@@ -4318,191 +4309,191 @@
         <f>DUDU_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="36">
         <f t="shared" ref="Q57" si="168">P57-P58+O57</f>
         <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33">
+      <c r="S57" s="36">
         <f t="shared" ref="S57" si="169">R57-R58+Q57</f>
         <v>0</v>
       </c>
       <c r="T57" s="6"/>
-      <c r="U57" s="33">
+      <c r="U57" s="36">
         <f t="shared" ref="U57" si="170">T57-T58+S57</f>
         <v>0</v>
       </c>
       <c r="V57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="W57" s="33">
+      <c r="W57" s="36">
         <f t="shared" ref="W57" si="171">V57-V58+U57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:23" ht="14.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="37"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>41.25</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="36"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>3948.53</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>2516.77</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="36"/>
       <c r="P58" s="7">
         <f>DUDU_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="36"/>
       <c r="R58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="36"/>
       <c r="T58" s="7">
         <f>H57</f>
         <v>0</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="36"/>
       <c r="V58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="W58" s="33"/>
-    </row>
-    <row r="59" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W58" s="36"/>
+    </row>
+    <row r="59" spans="2:23" ht="14.5">
       <c r="B59" s="10"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="36">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
+      <c r="G59" s="36">
         <f t="shared" ref="G59" si="172">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>0</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="36">
         <f>H59-H60+G59</f>
         <v>0</v>
       </c>
       <c r="J59" s="6"/>
-      <c r="K59" s="33">
+      <c r="K59" s="36">
         <f t="shared" ref="K59" si="173">J59-J60+I59</f>
         <v>-850.1</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="33">
+      <c r="M59" s="36">
         <f t="shared" ref="M59" si="174">L59-L60+K59</f>
         <v>-1012.83</v>
       </c>
       <c r="N59" s="6"/>
-      <c r="O59" s="33">
+      <c r="O59" s="36">
         <f t="shared" ref="O59" si="175">N59-N60+M59</f>
         <v>-1497.48</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33">
+      <c r="Q59" s="36">
         <f>P59-P60+O59</f>
         <v>-1576.53</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33">
+      <c r="S59" s="36">
         <f t="shared" ref="S59" si="176">R59-R60+Q59</f>
         <v>-1576.53</v>
       </c>
       <c r="T59" s="6"/>
-      <c r="U59" s="33">
+      <c r="U59" s="36">
         <f>T59-T60+S59</f>
         <v>-1576.53</v>
       </c>
       <c r="V59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="W59" s="33">
+      <c r="W59" s="36">
         <f t="shared" ref="W59" si="177">V59-V60+U59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:23" ht="14.5">
       <c r="B60" s="10"/>
-      <c r="C60" s="37"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="33"/>
+      <c r="I60" s="36"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$4</f>
         <v>850.1</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="36"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$4</f>
         <v>162.72999999999999</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$4</f>
         <v>484.65</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="36"/>
       <c r="P60" s="7">
         <f>UPFL_Clôtures!$E$4</f>
         <v>79.05</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="36"/>
       <c r="R60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="36"/>
       <c r="T60" s="7">
         <f>H59</f>
         <v>0</v>
       </c>
-      <c r="U60" s="33"/>
+      <c r="U60" s="36"/>
       <c r="V60" s="7"/>
-      <c r="W60" s="33"/>
-    </row>
-    <row r="61" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="W60" s="36"/>
+    </row>
+    <row r="61" spans="2:23" ht="14.5">
       <c r="B61" s="10"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="36">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="36">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="36">
         <f>H61-H62+G61</f>
         <v>0</v>
       </c>
@@ -4510,7 +4501,7 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>906</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="36">
         <f>J61-J62+I61</f>
         <v>906</v>
       </c>
@@ -4518,7 +4509,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>1003</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="36">
         <f>L61-L62+K61</f>
         <v>1909</v>
       </c>
@@ -4526,7 +4517,7 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>305.67</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="36">
         <f>N61-N62+M61</f>
         <v>2214.67</v>
       </c>
@@ -4534,152 +4525,468 @@
         <f>UPFL_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="33">
+      <c r="Q61" s="36">
         <f>P61-P62+O61</f>
         <v>2214.67</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33">
+      <c r="S61" s="36">
         <f>R61-R62+Q61</f>
         <v>2214.67</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33">
+      <c r="U61" s="36">
         <f>T61-T62+S61</f>
         <v>2214.67</v>
       </c>
       <c r="V61" s="6"/>
-      <c r="W61" s="33">
+      <c r="W61" s="36">
         <f>V61-V62+U61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:23" ht="14.5">
       <c r="B62" s="10"/>
-      <c r="C62" s="37"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="33"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="36"/>
       <c r="P62" s="7">
         <f>UPFL_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="36"/>
       <c r="R62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="36"/>
       <c r="T62" s="7">
         <f>H61</f>
         <v>0</v>
       </c>
-      <c r="U62" s="33"/>
+      <c r="U62" s="36"/>
       <c r="V62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="W62" s="33"/>
-    </row>
-    <row r="63" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="51" t="s">
+      <c r="W62" s="36"/>
+    </row>
+    <row r="63" spans="2:23" ht="14.4" customHeight="1">
+      <c r="B63" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="35">
+      <c r="C63" s="45"/>
+      <c r="D63" s="31">
         <f>E5+E7+E29</f>
         <v>16225.66</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35">
+      <c r="E63" s="31"/>
+      <c r="F63" s="31">
         <f>G5+G7+G29</f>
         <v>16225.66</v>
       </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35">
+      <c r="G63" s="31"/>
+      <c r="H63" s="31">
         <f>I5+I7+I29</f>
         <v>16225.66</v>
       </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35">
+      <c r="I63" s="31"/>
+      <c r="J63" s="31">
         <f>K5+K7+K29</f>
         <v>10188.869999999999</v>
       </c>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35">
+      <c r="K63" s="31"/>
+      <c r="L63" s="31">
         <f>M5+M7+M29</f>
         <v>14108.309999999998</v>
       </c>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35">
+      <c r="M63" s="31"/>
+      <c r="N63" s="31">
         <f>O5+O7+O29</f>
         <v>20099.569999999996</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35">
+      <c r="O63" s="31"/>
+      <c r="P63" s="31">
         <f>Q5+Q7+Q29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35">
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31">
         <f>S5+S7+S29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35">
+      <c r="S63" s="31"/>
+      <c r="T63" s="31">
         <f>U5+U7+U29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35">
+      <c r="U63" s="31"/>
+      <c r="V63" s="31">
         <f>W5+W7+W29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="W63" s="35"/>
-    </row>
-    <row r="64" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
+      <c r="W63" s="31"/>
+    </row>
+    <row r="64" spans="2:23" ht="14.4" customHeight="1">
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="340">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N63:O64"/>
+    <mergeCell ref="V63:W64"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="R63:S64"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P63:Q64"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:U42"/>
     <mergeCell ref="T63:U64"/>
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="U43:U44"/>
@@ -4704,322 +5011,6 @@
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="R63:S64"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N63:O64"/>
-    <mergeCell ref="V63:W64"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5034,12 +5025,12 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5082,7 +5073,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5109,7 +5100,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5132,7 +5123,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +5150,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5182,12 +5173,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5207,7 +5198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -5230,7 +5221,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5257,7 +5248,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5280,7 +5271,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5307,7 +5298,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5316,7 +5307,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -5325,7 +5316,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5334,7 +5325,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5343,7 +5334,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -5352,7 +5343,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -5361,7 +5352,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5384,12 +5375,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5409,7 +5400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5432,7 +5423,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5459,7 +5450,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5482,7 +5473,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5509,7 +5500,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5518,7 +5509,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -5527,7 +5518,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5536,7 +5527,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5545,7 +5536,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -5554,7 +5545,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -5563,7 +5554,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5582,16 +5573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64CDD2-E507-41CD-8560-836C4E93AF33}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5611,7 +5602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="26" t="s">
         <v>81</v>
       </c>
@@ -5632,7 +5623,7 @@
         <v>374.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="26" t="s">
         <v>82</v>
       </c>
@@ -5655,7 +5646,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5682,7 +5673,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
@@ -5705,7 +5696,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -5732,7 +5723,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -5741,7 +5732,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5750,7 +5741,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5759,7 +5750,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -5768,7 +5759,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -5777,7 +5768,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5786,7 +5777,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -5809,12 +5800,12 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5834,7 +5825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5857,7 +5848,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5884,7 +5875,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5907,7 +5898,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5934,7 +5925,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5943,7 +5934,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -5952,7 +5943,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5961,7 +5952,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5970,7 +5961,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -5979,7 +5970,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -5988,7 +5979,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6007,16 +5998,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD69A4B0-5846-4525-84AF-61495CEC446C}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6036,7 +6027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6059,7 +6050,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6086,7 +6077,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6109,7 +6100,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6136,7 +6127,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6145,7 +6136,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -6154,7 +6145,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6163,7 +6154,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6172,7 +6163,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -6181,7 +6172,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6190,7 +6181,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6213,12 +6204,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6238,7 +6229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6261,7 +6252,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6288,7 +6279,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6311,7 +6302,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6338,7 +6329,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6347,7 +6338,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -6356,7 +6347,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6365,7 +6356,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6374,7 +6365,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -6383,7 +6374,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6392,7 +6383,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6411,16 +6402,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C1491-BEC6-4BF9-8563-D1E28937352E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6440,7 +6431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
@@ -6461,7 +6452,7 @@
         <v>177.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -6484,7 +6475,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -6511,7 +6502,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -6534,7 +6525,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="12" t="s">
         <v>79</v>
       </c>
@@ -6557,7 +6548,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -6584,7 +6575,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6593,7 +6584,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6602,7 +6593,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -6611,7 +6602,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6620,7 +6611,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6629,7 +6620,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -6638,7 +6629,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -6661,12 +6652,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6686,7 +6677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6709,7 +6700,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6736,7 +6727,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6759,7 +6750,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6786,7 +6777,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6795,7 +6786,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -6804,7 +6795,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6813,7 +6804,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6822,7 +6813,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -6831,7 +6822,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6840,7 +6831,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6863,12 +6854,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6888,7 +6879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6911,7 +6902,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6938,7 +6929,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6961,7 +6952,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6988,7 +6979,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6997,7 +6988,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -7006,7 +6997,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -7015,7 +7006,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7024,7 +7015,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7033,7 +7024,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7042,7 +7033,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7062,16 +7053,16 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="16"/>
+    <col min="6" max="6" width="11.54296875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7091,7 +7082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -7114,7 +7105,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -7137,7 +7128,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -7160,7 +7151,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="15">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -7187,7 +7178,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -7210,7 +7201,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -7233,7 +7224,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -7256,7 +7247,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -7283,7 +7274,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7292,7 +7283,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7301,7 +7292,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7319,16 +7310,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1FCF5-4584-43D9-BDD9-BFBBB5FBF3B0}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7348,7 +7339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -7371,7 +7362,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7398,7 +7389,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -7421,7 +7412,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -7448,7 +7439,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -7457,7 +7448,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -7466,7 +7457,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -7475,7 +7466,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7484,7 +7475,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7493,7 +7484,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7502,7 +7493,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7525,12 +7516,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7550,7 +7541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
@@ -7573,7 +7564,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7600,7 +7591,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
@@ -7623,7 +7614,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -7646,7 +7637,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -7673,7 +7664,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -7682,7 +7673,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -7691,7 +7682,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7700,7 +7691,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7709,7 +7700,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7718,7 +7709,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7727,7 +7718,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -7746,16 +7737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A7888-1CD1-4E39-8382-51BE60C58E08}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7775,7 +7766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -7798,7 +7789,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7825,7 +7816,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -7848,7 +7839,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -7875,7 +7866,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -7884,7 +7875,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -7893,7 +7884,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -7902,7 +7893,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7911,7 +7902,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -7920,7 +7911,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -7929,7 +7920,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -7952,12 +7943,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7977,7 +7968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -8000,7 +7991,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8027,7 +8018,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
@@ -8050,7 +8041,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -8073,7 +8064,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -8100,7 +8091,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -8109,7 +8100,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -8118,7 +8109,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8127,7 +8118,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -8136,7 +8127,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -8145,7 +8136,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -8154,7 +8145,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -8173,16 +8164,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1AFE0-5A9B-495B-9FC5-BB69210E89D8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8202,7 +8193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -8225,7 +8216,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8252,7 +8243,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -8275,7 +8266,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8302,7 +8293,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -8311,7 +8302,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -8320,7 +8311,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -8329,7 +8320,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8338,7 +8329,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -8347,7 +8338,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -8356,7 +8347,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -8375,16 +8366,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D399F49-7896-4441-B348-BC2B20ED09D9}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8404,7 +8395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -8427,7 +8418,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8454,7 +8445,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>47</v>
       </c>
@@ -8477,7 +8468,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8504,7 +8495,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -8513,7 +8504,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -8522,7 +8513,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -8531,7 +8522,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8540,7 +8531,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -8558,16 +8549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26582C38-90BE-464E-B1D7-1AC693B3C941}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8587,7 +8578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -8609,7 +8600,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8635,7 +8626,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -8655,7 +8646,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -8673,7 +8664,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -8699,7 +8690,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -8707,7 +8698,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -8725,16 +8716,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE9F06-57C6-42DF-B631-CFF41A00053B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8754,7 +8745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -8777,7 +8768,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
@@ -8800,7 +8791,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
@@ -8823,7 +8814,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -8850,7 +8841,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
@@ -8873,7 +8864,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -8896,7 +8887,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -8919,7 +8910,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
@@ -8942,7 +8933,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -8965,7 +8956,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="12" t="s">
         <v>72</v>
       </c>
@@ -8988,7 +8979,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -9015,7 +9006,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -9024,15 +9015,15 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9040,16 +9031,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E9E5BE-CF0B-428E-972C-7C22FD5CFDD8}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9069,7 +9060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
@@ -9092,7 +9083,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9119,7 +9110,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -9142,7 +9133,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9169,7 +9160,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9178,7 +9169,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -9187,7 +9178,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -9196,7 +9187,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -9205,7 +9196,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -9214,7 +9205,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -9232,16 +9223,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FFFFD6-30BF-45C5-9418-8974BB80D938}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9261,7 +9252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
@@ -9284,7 +9275,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="12" t="s">
         <v>67</v>
       </c>
@@ -9307,7 +9298,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="12" t="s">
         <v>68</v>
       </c>
@@ -9330,7 +9321,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -9357,7 +9348,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -9380,7 +9371,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
@@ -9403,7 +9394,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -9426,7 +9417,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
@@ -9449,7 +9440,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -9472,7 +9463,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
@@ -9495,7 +9486,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -9522,7 +9513,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -9531,7 +9522,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -9540,7 +9531,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -9549,7 +9540,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -9572,12 +9563,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9597,7 +9588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -9619,7 +9610,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9645,7 +9636,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -9667,7 +9658,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9693,7 +9684,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9701,7 +9692,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -9709,7 +9700,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -9717,7 +9708,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -9725,7 +9716,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -9733,7 +9724,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -9755,12 +9746,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9780,7 +9771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -9802,7 +9793,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9828,7 +9819,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -9850,7 +9841,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="12" t="s">
         <v>76</v>
       </c>
@@ -9872,7 +9863,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="12" t="s">
         <v>77</v>
       </c>
@@ -9894,7 +9885,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="12" t="s">
         <v>78</v>
       </c>
@@ -9916,7 +9907,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -9942,7 +9933,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -9950,7 +9941,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>

--- a/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
+++ b/2 - Bilans/2021-2022/Unipoly_Bilan_Trimestriel_21-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBCFC9-689F-4C5C-97A6-C62D6D6FF12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196EC82-A877-474C-A559-76EECC7FB395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="-4060" yWindow="4330" windowWidth="10800" windowHeight="5150" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -688,56 +688,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,17 +733,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,9 +1082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25:C26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1103,80 +1103,80 @@
     <row r="2" spans="1:23" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="56"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="W3" s="48"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.5">
-      <c r="B4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50"/>
+      <c r="W3" s="41"/>
+    </row>
+    <row r="4" spans="1:23" ht="20">
+      <c r="B4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1238,46 +1238,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.5">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="1:23" ht="15.5">
+      <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6">
         <f>14813.98+3472.78+3833.79</f>
         <v>22120.55</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="31">
         <f>D5-D6</f>
         <v>16225.66</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="36">
+      <c r="G5" s="31">
         <f>F5-F6+E5</f>
         <v>8919.0999999999985</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="36">
+      <c r="I5" s="31">
         <f>H5-H6+G5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="36">
+      <c r="K5" s="31">
         <f>J5-J6+I5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="36">
+      <c r="M5" s="31">
         <f>L5-L6+K5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="36">
+      <c r="O5" s="31">
         <f>N5-N6+M5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="36">
+      <c r="Q5" s="31">
         <f>P5-P6+M5</f>
         <v>2037.9899999999989</v>
       </c>
@@ -1285,7 +1285,7 @@
         <f>R8+R30</f>
         <v>7306.56</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="31">
         <f>R5-R6+Q5</f>
         <v>9344.5499999999993</v>
       </c>
@@ -1293,60 +1293,60 @@
         <f>T8+T30</f>
         <v>6881.11</v>
       </c>
-      <c r="U5" s="36">
+      <c r="U5" s="31">
         <f>T5-T6+S5</f>
         <v>16225.66</v>
       </c>
       <c r="V5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="32">
         <f>V5-V6+U5</f>
         <v>18439.689999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.5">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
+    <row r="6" spans="1:23" ht="15.5">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="7">
         <v>5894.89</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="7">
         <f>F7+F29</f>
         <v>7306.56</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="7">
         <f>H7+H29</f>
         <v>6881.11</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="37"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="46"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="37"/>
+      <c r="S6" s="46"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="37"/>
+      <c r="U6" s="46"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.5">
-      <c r="B7" s="53" t="s">
+      <c r="W6" s="46"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.5">
+      <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="32">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1354,7 +1354,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="32">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27</f>
         <v>3370</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="31">
         <f>H7-H8+G7</f>
         <v>3370</v>
       </c>
@@ -1370,7 +1370,7 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27</f>
         <v>2085.9499999999998</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="31">
         <f>J7-J8+I7</f>
         <v>1724.5000000000005</v>
       </c>
@@ -1378,7 +1378,7 @@
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27</f>
         <v>7231.83</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="31">
         <f>L7-L8+K7</f>
         <v>5525.48</v>
       </c>
@@ -1386,7 +1386,7 @@
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27</f>
         <v>10251.82</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="31">
         <f>N7-N8+M7</f>
         <v>11072.119999999999</v>
       </c>
@@ -1394,7 +1394,7 @@
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27</f>
         <v>370.90999999999997</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="31">
         <f>P7-P8+O7</f>
         <v>10750.199999999999</v>
       </c>
@@ -1402,7 +1402,7 @@
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27</f>
         <v>0</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="31">
         <f>R7-R8+Q7</f>
         <v>10750.199999999999</v>
       </c>
@@ -1410,7 +1410,7 @@
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27</f>
         <v>0</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="31">
         <f>T7-T8+S7</f>
         <v>7380.1999999999989</v>
       </c>
@@ -1418,84 +1418,84 @@
         <f>V9+V11+V13+V15+V17+V19+V21+V23+V25+V27</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="47">
         <f>V7-V8+U7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
+    <row r="8" spans="1:23" ht="15.5">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28</f>
         <v>0</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28</f>
         <v>3731.4499999999994</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28</f>
         <v>3430.8500000000004</v>
       </c>
-      <c r="M8" s="36"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28</f>
         <v>4705.1799999999994</v>
       </c>
-      <c r="O8" s="36"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28</f>
         <v>692.82999999999993</v>
       </c>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28</f>
         <v>0</v>
       </c>
-      <c r="S8" s="36"/>
+      <c r="S8" s="31"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28</f>
         <v>3370</v>
       </c>
-      <c r="U8" s="36"/>
+      <c r="U8" s="31"/>
       <c r="V8" s="7">
         <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="W8" s="42"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.5">
+      <c r="W8" s="47"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="36">
+      <c r="E9" s="31">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="36">
+      <c r="G9" s="31">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>1000</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="31">
         <f>H9-H10+G9</f>
         <v>1000</v>
       </c>
@@ -1503,7 +1503,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="31">
         <f>J9-J10+I9</f>
         <v>895.05</v>
       </c>
@@ -1511,7 +1511,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>148.44999999999999</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="31">
         <f>L9-L10+K9</f>
         <v>604.29</v>
       </c>
@@ -1519,7 +1519,7 @@
         <f>COHE_Clôtures!D5</f>
         <v>1745</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="31">
         <f>N9-N10+M9</f>
         <v>584.07000000000016</v>
       </c>
@@ -1527,91 +1527,91 @@
         <f>COHE_Clôtures!E5</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="31">
         <f t="shared" ref="Q9" si="0">P9-P10+O9</f>
         <v>584.07000000000016</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="36">
+      <c r="S9" s="31">
         <f>R9-R10+Q9</f>
         <v>584.07000000000016</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="36">
+      <c r="U9" s="31">
         <f>T9-T10+S9</f>
         <v>-415.92999999999984</v>
       </c>
       <c r="V9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="47">
         <f>V9-V10+U9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.5">
+    <row r="10" spans="1:23" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="41"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="36"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>104.95</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>439.21</v>
       </c>
-      <c r="M10" s="36"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>1765.2199999999998</v>
       </c>
-      <c r="O10" s="36"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="7">
         <f>COHE_Clôtures!E9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="36"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="S10" s="36"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="7">
         <f>H9</f>
         <v>1000</v>
       </c>
-      <c r="U10" s="36"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="W10" s="42"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.5">
+      <c r="W10" s="47"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="36">
+      <c r="E11" s="31">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="36">
+      <c r="G11" s="31">
         <f t="shared" ref="G11" si="1">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>750</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="31">
         <f t="shared" ref="I11" si="2">H11-H12+G11</f>
         <v>750</v>
       </c>
@@ -1619,7 +1619,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>40</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="31">
         <f t="shared" ref="K11" si="3">J11-J12+I11</f>
         <v>10.899999999999977</v>
       </c>
@@ -1627,7 +1627,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>86.2</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="31">
         <f>L11-L12+K11</f>
         <v>97.09999999999998</v>
       </c>
@@ -1635,7 +1635,7 @@
         <f>COM_Clôtures!$D$3</f>
         <v>2</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="31">
         <f>N11-N12+M11</f>
         <v>99.09999999999998</v>
       </c>
@@ -1643,91 +1643,91 @@
         <f>COM_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="31">
         <f t="shared" ref="Q11" si="4">P11-P12+O11</f>
         <v>-5.1400000000000148</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="36">
+      <c r="S11" s="31">
         <f t="shared" ref="S11" si="5">R11-R12+Q11</f>
         <v>-5.1400000000000148</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="36">
+      <c r="U11" s="31">
         <f t="shared" ref="U11" si="6">T11-T12+S11</f>
         <v>-755.14</v>
       </c>
       <c r="V11" s="6">
         <v>883.34</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="47">
         <f t="shared" ref="W11" si="7">V11-V12+U11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.5">
+    <row r="12" spans="1:23" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="41"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>779.1</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="36"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="36"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="7">
         <f>COM_Clôtures!$E$5</f>
         <v>104.24</v>
       </c>
-      <c r="Q12" s="36"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="S12" s="36"/>
+      <c r="S12" s="31"/>
       <c r="T12" s="7">
         <f>H11</f>
         <v>750</v>
       </c>
-      <c r="U12" s="36"/>
+      <c r="U12" s="31"/>
       <c r="V12" s="7">
         <v>128.19999999999999</v>
       </c>
-      <c r="W12" s="42"/>
-    </row>
-    <row r="13" spans="1:23" ht="14.5">
+      <c r="W12" s="47"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="36">
+      <c r="E13" s="31">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="36">
+      <c r="G13" s="31">
         <f t="shared" ref="G13" si="8">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>170</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="31">
         <f t="shared" ref="I13" si="9">H13-H14+G13</f>
         <v>170</v>
       </c>
@@ -1735,7 +1735,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="31">
         <f t="shared" ref="K13" si="10">J13-J14+I13</f>
         <v>105.15</v>
       </c>
@@ -1743,7 +1743,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="31">
         <f>L13-L14+K13</f>
         <v>30.849999999999994</v>
       </c>
@@ -1751,7 +1751,7 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="31">
         <f>N13-N14+M13</f>
         <v>-1.6000000000000085</v>
       </c>
@@ -1759,89 +1759,89 @@
         <f>CONTRIB_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="31">
         <f t="shared" ref="Q13" si="11">P13-P14+O13</f>
         <v>-1.6000000000000085</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="36">
+      <c r="S13" s="31">
         <f t="shared" ref="S13" si="12">R13-R14+Q13</f>
         <v>-1.6000000000000085</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="36">
+      <c r="U13" s="31">
         <f t="shared" ref="U13" si="13">T13-T14+S13</f>
         <v>-171.60000000000002</v>
       </c>
       <c r="V13" s="6">
         <v>171.6</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="47">
         <f t="shared" ref="W13" si="14">V13-V14+U13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.5">
+    <row r="14" spans="1:23" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="41"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="36"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$6</f>
         <v>64.849999999999994</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$6</f>
         <v>74.300000000000011</v>
       </c>
-      <c r="M14" s="36"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$6</f>
         <v>32.450000000000003</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="7">
         <f>CONTRIB_Clôtures!$E$6</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="36"/>
+      <c r="S14" s="31"/>
       <c r="T14" s="7">
         <f>H13</f>
         <v>170</v>
       </c>
-      <c r="U14" s="36"/>
+      <c r="U14" s="31"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="42"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.5">
+      <c r="W14" s="47"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="36">
+      <c r="E15" s="31">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="36">
+      <c r="G15" s="31">
         <f t="shared" ref="G15" si="15">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>800</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="31">
         <f t="shared" ref="I15" si="16">H15-H16+G15</f>
         <v>800</v>
       </c>
@@ -1849,7 +1849,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>522</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="31">
         <f t="shared" ref="K15" si="17">J15-J16+I15</f>
         <v>256.49</v>
       </c>
@@ -1857,7 +1857,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="31">
         <f>L15-L16+K15</f>
         <v>243.67000000000002</v>
       </c>
@@ -1865,7 +1865,7 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>3851.86</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="31">
         <f>N15-N16+M15</f>
         <v>2731.6400000000003</v>
       </c>
@@ -1873,91 +1873,91 @@
         <f>EVENT_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="31">
         <f t="shared" ref="Q15" si="18">P15-P16+O15</f>
         <v>2731.6400000000003</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="36">
+      <c r="S15" s="31">
         <f t="shared" ref="S15" si="19">R15-R16+Q15</f>
         <v>2731.6400000000003</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="36">
+      <c r="U15" s="31">
         <f t="shared" ref="U15" si="20">T15-T16+S15</f>
         <v>1931.6400000000003</v>
       </c>
       <c r="V15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="47">
         <f t="shared" ref="W15" si="21">V15-V16+U15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.5">
+    <row r="16" spans="1:23" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="36"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>1065.51</v>
       </c>
-      <c r="K16" s="36"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>12.82</v>
       </c>
-      <c r="M16" s="36"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>1363.8899999999999</v>
       </c>
-      <c r="O16" s="36"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7">
         <f>EVENT_Clôtures!$E$12</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="36"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="S16" s="36"/>
+      <c r="S16" s="31"/>
       <c r="T16" s="7">
         <f>H15</f>
         <v>800</v>
       </c>
-      <c r="U16" s="36"/>
+      <c r="U16" s="31"/>
       <c r="V16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="W16" s="42"/>
-    </row>
-    <row r="17" spans="2:23" ht="14.5">
+      <c r="W16" s="47"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="36">
+      <c r="E17" s="31">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="36">
+      <c r="G17" s="31">
         <f t="shared" ref="G17" si="22">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="31">
         <f t="shared" ref="I17" si="23">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1965,7 +1965,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>597.85</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="31">
         <f t="shared" ref="K17" si="24">J17-J18+I17</f>
         <v>201.97000000000003</v>
       </c>
@@ -1973,7 +1973,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0.04</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="31">
         <f>L17-L18+K17</f>
         <v>202.00000000000003</v>
       </c>
@@ -1981,7 +1981,7 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0.02</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="31">
         <f>N17-N18+M17</f>
         <v>202.01000000000002</v>
       </c>
@@ -1989,91 +1989,91 @@
         <f>EXTRA_Clôtures!$E$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="31">
         <f t="shared" ref="Q17" si="25">P17-P18+O17</f>
         <v>202.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="36">
+      <c r="S17" s="31">
         <f t="shared" ref="S17" si="26">R17-R18+Q17</f>
         <v>202.02</v>
       </c>
       <c r="T17" s="6"/>
-      <c r="U17" s="36">
+      <c r="U17" s="31">
         <f t="shared" ref="U17" si="27">T17-T18+S17</f>
         <v>202.02</v>
       </c>
       <c r="V17" s="6">
         <v>395.9</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="47">
         <f t="shared" ref="W17" si="28">V17-V18+U17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.5">
+    <row r="18" spans="2:23" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>395.88</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0.01</v>
       </c>
-      <c r="M18" s="36"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0.01</v>
       </c>
-      <c r="O18" s="36"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="7">
         <f>EXTRA_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="36"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="U18" s="36"/>
+      <c r="U18" s="31"/>
       <c r="V18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="W18" s="42"/>
-    </row>
-    <row r="19" spans="2:23" ht="14.5">
+      <c r="W18" s="47"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="36">
+      <c r="E19" s="31">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="36">
+      <c r="G19" s="31">
         <f t="shared" ref="G19" si="29">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="31">
         <f t="shared" ref="I19" si="30">H19-H20+G19</f>
         <v>0</v>
       </c>
@@ -2081,7 +2081,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>698.7</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="31">
         <f t="shared" ref="K19" si="31">J19-J20+I19</f>
         <v>196.21000000000009</v>
       </c>
@@ -2089,7 +2089,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>4445.05</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="31">
         <f>L19-L20+K19</f>
         <v>4598.66</v>
       </c>
@@ -2097,7 +2097,7 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>2846.0299999999997</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="31">
         <f>N19-N20+M19</f>
         <v>6944.0399999999991</v>
       </c>
@@ -2105,91 +2105,91 @@
         <f>FONCT_Clôtures!$E$5</f>
         <v>70</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="31">
         <f t="shared" ref="Q19" si="32">P19-P20+O19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="36">
+      <c r="S19" s="31">
         <f t="shared" ref="S19" si="33">R19-R20+Q19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="36">
+      <c r="U19" s="31">
         <f t="shared" ref="U19" si="34">T19-T20+S19</f>
         <v>7004.0399999999991</v>
       </c>
       <c r="V19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="47">
         <f t="shared" ref="W19" si="35">V19-V20+U19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.5">
+    <row r="20" spans="2:23" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>502.48999999999995</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>42.6</v>
       </c>
-      <c r="M20" s="36"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>500.65</v>
       </c>
-      <c r="O20" s="36"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="7">
         <f>FONCT_Clôtures!$E$12</f>
         <v>10</v>
       </c>
-      <c r="Q20" s="36"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="36"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="7">
         <f>H19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="36"/>
+      <c r="U20" s="31"/>
       <c r="V20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="W20" s="42"/>
-    </row>
-    <row r="21" spans="2:23" ht="14.5">
+      <c r="W20" s="47"/>
+    </row>
+    <row r="21" spans="2:23" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="36">
+      <c r="E21" s="31">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="36">
+      <c r="G21" s="31">
         <f t="shared" ref="G21" si="36">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="31">
         <f t="shared" ref="I21" si="37">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="31">
         <f t="shared" ref="K21" si="38">J21-J22+I21</f>
         <v>-22.25</v>
       </c>
@@ -2205,7 +2205,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>2000</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="31">
         <f>L21-L22+K21</f>
         <v>-268.07000000000016</v>
       </c>
@@ -2213,7 +2213,7 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>1000</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="31">
         <f>N21-N22+M21</f>
         <v>638.17999999999984</v>
       </c>
@@ -2221,91 +2221,91 @@
         <f>CONVER_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="31">
         <f t="shared" ref="Q21" si="39">P21-P22+O21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="36">
+      <c r="S21" s="31">
         <f t="shared" ref="S21" si="40">R21-R22+Q21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="T21" s="6"/>
-      <c r="U21" s="36">
+      <c r="U21" s="31">
         <f t="shared" ref="U21" si="41">T21-T22+S21</f>
         <v>594.57999999999981</v>
       </c>
       <c r="V21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="47">
         <f t="shared" ref="W21" si="42">V21-V22+U21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.5">
+    <row r="22" spans="2:23" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="36"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>22.25</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>2245.8200000000002</v>
       </c>
-      <c r="M22" s="36"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>93.75</v>
       </c>
-      <c r="O22" s="36"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="7">
         <f>CONVER_Clôtures!$E$5</f>
         <v>43.6</v>
       </c>
-      <c r="Q22" s="36"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="36"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="U22" s="36"/>
+      <c r="U22" s="31"/>
       <c r="V22" s="7">
         <v>3000</v>
       </c>
-      <c r="W22" s="42"/>
-    </row>
-    <row r="23" spans="2:23" ht="14.5">
+      <c r="W22" s="47"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="36">
+      <c r="E23" s="31">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="36">
+      <c r="G23" s="31">
         <f t="shared" ref="G23" si="43">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>500</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="31">
         <f t="shared" ref="I23" si="44">H23-H24+G23</f>
         <v>500</v>
       </c>
@@ -2313,7 +2313,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="31">
         <f t="shared" ref="K23" si="45">J23-J24+I23</f>
         <v>-27.569999999999936</v>
       </c>
@@ -2321,7 +2321,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="31">
         <f>L23-L24+K23</f>
         <v>-27.569999999999936</v>
       </c>
@@ -2329,7 +2329,7 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="31">
         <f>N23-N24+M23</f>
         <v>-45.769999999999939</v>
       </c>
@@ -2337,89 +2337,89 @@
         <f>LOCAL_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="31">
         <f t="shared" ref="Q23" si="46">P23-P24+O23</f>
         <v>-154.45999999999992</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="36">
+      <c r="S23" s="31">
         <f t="shared" ref="S23" si="47">R23-R24+Q23</f>
         <v>-154.45999999999992</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="36">
+      <c r="U23" s="31">
         <f t="shared" ref="U23" si="48">T23-T24+S23</f>
         <v>-654.45999999999992</v>
       </c>
       <c r="V23" s="6">
         <v>654.46</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="47">
         <f t="shared" ref="W23" si="49">V23-V24+U23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.5">
+    <row r="24" spans="2:23" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="41"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="36"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>527.56999999999994</v>
       </c>
-      <c r="K24" s="36"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="36"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>18.2</v>
       </c>
-      <c r="O24" s="36"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="7">
         <f>LOCAL_Clôtures!$E$8</f>
         <v>108.69</v>
       </c>
-      <c r="Q24" s="36"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="36"/>
+      <c r="S24" s="31"/>
       <c r="T24" s="7">
         <f>H23</f>
         <v>500</v>
       </c>
-      <c r="U24" s="36"/>
+      <c r="U24" s="31"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="42"/>
-    </row>
-    <row r="25" spans="2:23" ht="14.5">
+      <c r="W24" s="47"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="36">
+      <c r="E25" s="31">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="36">
+      <c r="G25" s="31">
         <f t="shared" ref="G25" si="50">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>150</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="31">
         <f t="shared" ref="I25" si="51">H25-H26+G25</f>
         <v>150</v>
       </c>
@@ -2427,7 +2427,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="31">
         <f t="shared" ref="K25" si="52">J25-J26+I25</f>
         <v>108.55</v>
       </c>
@@ -2435,7 +2435,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="31">
         <f>L25-L26+K25</f>
         <v>44.55</v>
       </c>
@@ -2443,7 +2443,7 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="31">
         <f>N25-N26+M25</f>
         <v>-79.55</v>
       </c>
@@ -2451,89 +2451,89 @@
         <f>LOG_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="31">
         <f>P25-P26+O25</f>
         <v>-204.95</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="36">
+      <c r="S25" s="31">
         <f t="shared" ref="S25" si="53">R25-R26+Q25</f>
         <v>-204.95</v>
       </c>
       <c r="T25" s="6"/>
-      <c r="U25" s="36">
+      <c r="U25" s="31">
         <f t="shared" ref="U25" si="54">T25-T26+S25</f>
         <v>-354.95</v>
       </c>
       <c r="V25" s="6">
         <v>354.95</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="47">
         <f t="shared" ref="W25" si="55">V25-V26+U25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.5">
+    <row r="26" spans="2:23" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="41"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>41.45</v>
       </c>
-      <c r="K26" s="36"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>64</v>
       </c>
-      <c r="M26" s="36"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>124.1</v>
       </c>
-      <c r="O26" s="36"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="7">
         <f>LOG_Clôtures!$E$5</f>
         <v>125.4</v>
       </c>
-      <c r="Q26" s="36"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="36"/>
+      <c r="S26" s="31"/>
       <c r="T26" s="7">
         <f>H25</f>
         <v>150</v>
       </c>
-      <c r="U26" s="36"/>
+      <c r="U26" s="31"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="42"/>
-    </row>
-    <row r="27" spans="2:23" ht="14.5">
+      <c r="W26" s="47"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="36">
+      <c r="E27" s="31">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="36">
+      <c r="G27" s="31">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="31">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2541,7 +2541,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>227.4</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="31">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2549,7 +2549,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>552.09</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="31">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2557,7 +2557,7 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>806.91</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="31">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
@@ -2565,82 +2565,82 @@
         <f>MOBILITY_Clôtures!$E$3</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="31">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="36">
+      <c r="S27" s="31">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="36">
+      <c r="U27" s="31">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
       <c r="V27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="W27" s="42">
+      <c r="W27" s="47">
         <f>V27-V28+U27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.5">
+    <row r="28" spans="2:23" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="36"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>227.4</v>
       </c>
-      <c r="K28" s="36"/>
+      <c r="K28" s="31"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>552.09</v>
       </c>
-      <c r="M28" s="36"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>806.91</v>
       </c>
-      <c r="O28" s="36"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="7">
         <f>MOBILITY_Clôtures!$E$5</f>
         <v>300.89999999999998</v>
       </c>
-      <c r="Q28" s="36"/>
+      <c r="Q28" s="31"/>
       <c r="R28" s="27">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="36"/>
+      <c r="S28" s="31"/>
       <c r="T28" s="27">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="U28" s="37"/>
+      <c r="U28" s="46"/>
       <c r="V28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="W28" s="42"/>
-    </row>
-    <row r="29" spans="2:23" ht="14.5">
-      <c r="B29" s="53" t="s">
+      <c r="W28" s="47"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.5">
+      <c r="B29" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="8">
         <f>D31+D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61</f>
         <v>0</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="32">
         <f>D29-D30</f>
         <v>0</v>
       </c>
@@ -2648,7 +2648,7 @@
         <f>F31+F33+F35+F37+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F39</f>
         <v>7306.56</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="32">
         <f>F29-F30</f>
         <v>7306.56</v>
       </c>
@@ -2656,140 +2656,140 @@
         <f>H31+H33+H35+H37+H41+H43+H45+H47+H49+H51+H5+H39+H533+H55+H57+H59+H61</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="32">
         <f>H29-H30+G29</f>
         <v>10817.67</v>
       </c>
       <c r="J29" s="8">
-        <f>J31+J33+J35+J37+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J39</f>
+        <f>J31+J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61</f>
         <v>2579.4499999999998</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="32">
         <f>J29-J30+I29</f>
         <v>6426.3799999999992</v>
       </c>
       <c r="L29" s="8">
-        <f>L31+L33+L35+L37+L41+L43+L45+L47+L51+L53+L55+L57+L59+L61+L39+L49</f>
+        <f>L31+L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61</f>
         <v>6218.03</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="32">
         <f>L29-L30+K29</f>
         <v>6544.8399999999992</v>
       </c>
       <c r="N29" s="8">
-        <f>N31+N33+N35+N37+N41+N43+N45+N47+N51+N53+N55+N57+N59+N61+N39+N49</f>
-        <v>6193.96</v>
-      </c>
-      <c r="O29" s="39">
+        <f>N31+N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61</f>
+        <v>6193.9600000000009</v>
+      </c>
+      <c r="O29" s="32">
         <f>N29-N30+M29</f>
-        <v>6989.4599999999991</v>
+        <v>6989.46</v>
       </c>
       <c r="P29" s="8">
-        <f>P31+P33+P35+P37+P41+P43+P45+P47+P51+P53+P55+P57+P59+P61+P39+P49</f>
+        <f>P31+P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61</f>
         <v>11.15</v>
       </c>
-      <c r="Q29" s="39">
+      <c r="Q29" s="32">
         <f>P29-P30+O29</f>
-        <v>5651.4999999999991</v>
+        <v>5651.5</v>
       </c>
       <c r="R29" s="6">
-        <f>R31+R33+R35+R37+R41+R43+R45+R47+R51+R53+R55+R57+R59+R61+R39+R49</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="39">
+        <f>R31+R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="32">
         <f>R29-R30+Q29</f>
-        <v>-1655.0600000000013</v>
+        <v>-1655.0600000000004</v>
       </c>
       <c r="T29" s="6">
         <f>T31+T33+T35+T37+T41+T43+T45+T47+T51+T53+T55+T57+T59+T61+T39+T49</f>
         <v>0</v>
       </c>
-      <c r="U29" s="36">
+      <c r="U29" s="31">
         <f>T29-T30+S29</f>
-        <v>-5166.170000000001</v>
+        <v>-5166.17</v>
       </c>
       <c r="V29" s="8">
         <f>V31+V33+V35+V37+V41+V43+V45+V47+V51+V53+V55+V57+V59+V61+V49+V39</f>
         <v>20168.759999999998</v>
       </c>
-      <c r="W29" s="39">
+      <c r="W29" s="32">
         <f>V29-V30+U29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.5">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
+    <row r="30" spans="2:23" ht="15.5">
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="7">
         <f>D32+D34+D36+D38+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62</f>
         <v>0</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="7">
         <f>F32+F34+F36+F38+F42+F44+F46+F48+F50+F52+F54+F56++F40+F58+F60+F62</f>
         <v>0</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="7">
         <f>H32+H34+H36+H38+H42+H44+H46+H48+H50+H52+H54+H40+H56+H58+H60+H56+H62</f>
         <v>0</v>
       </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="7">
-        <f>J32+J34+J36+J38+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J40+J62</f>
+        <f>J32+J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62</f>
         <v>6970.7400000000007</v>
       </c>
-      <c r="K30" s="36"/>
+      <c r="K30" s="31"/>
       <c r="L30" s="7">
-        <f>L32+L34+L36+L38+L42+L44+L46+L48+L52+L54+L56+L58+L60+L62+L40+L50</f>
+        <f>L32+L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62</f>
         <v>6099.57</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="7">
-        <f>N32+N34+N36+N38+N42+N44+N46+N48+N52+N54+N56+N58+N60+N62+N40+N50</f>
+        <f>N32+N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62</f>
         <v>5749.34</v>
       </c>
-      <c r="O30" s="36"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="7">
         <f>P32+P34+P36+P38+P42+P44+P46+P48+P52+P54+P56+P58+P60+P62+P40+P50</f>
         <v>1349.11</v>
       </c>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="7">
-        <f>R32+R34+R36+R38+R42+R44+R46+R48+R52+R54+R56+R58+R60+R62+R40+R50</f>
+        <f>R32+R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62</f>
         <v>7306.56</v>
       </c>
-      <c r="S30" s="36"/>
+      <c r="S30" s="31"/>
       <c r="T30" s="7">
         <f>T32+T34+T36+T38+T42+T44+T46+T48+T52+T54+T56+T58+T60+T62+T40+T50</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="U30" s="36"/>
+      <c r="U30" s="31"/>
       <c r="V30" s="7">
         <f>V32+V34+V36+V38+V42+V44+V46+V48+V52+V54+V56+V58+V60+V62+V40+V50</f>
         <v>15002.59</v>
       </c>
-      <c r="W30" s="36"/>
-    </row>
-    <row r="31" spans="2:23" ht="14.5">
+      <c r="W30" s="31"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.5">
       <c r="B31" s="9"/>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="36">
+      <c r="E31" s="31">
         <f>D31-D32</f>
         <v>0</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="36">
+      <c r="G31" s="31">
         <f>F31-F32+E31</f>
         <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>47.5</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="31">
         <f>H31-H32+G31</f>
         <v>47.5</v>
       </c>
@@ -2797,7 +2797,7 @@
         <f>ACHATS_Clôtures!$B$2</f>
         <v>32.5</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="31">
         <f>J31-J32+I31</f>
         <v>-598.65</v>
       </c>
@@ -2805,7 +2805,7 @@
         <f>ACHATS_Clôtures!$C$2</f>
         <v>42.1</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="31">
         <f>L31-L32+K31</f>
         <v>-598.65</v>
       </c>
@@ -2813,7 +2813,7 @@
         <f>ACHATS_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="31">
         <f>N31-N32+M31</f>
         <v>-598.65</v>
       </c>
@@ -2821,91 +2821,91 @@
         <f>ACHATS_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="31">
         <f t="shared" ref="Q31" si="56">P31-P32+O31</f>
         <v>-598.65</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="36">
+      <c r="S31" s="31">
         <f>R31-R32+Q31</f>
         <v>-598.65</v>
       </c>
       <c r="T31" s="6"/>
-      <c r="U31" s="36">
+      <c r="U31" s="31">
         <f t="shared" ref="U31" si="57">T31-T32+S31</f>
         <v>-646.15</v>
       </c>
       <c r="V31" s="6">
         <v>720.75</v>
       </c>
-      <c r="W31" s="36">
+      <c r="W31" s="31">
         <f>V31-V32+U31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.5">
+    <row r="32" spans="2:23" ht="15.5">
       <c r="B32" s="9"/>
-      <c r="C32" s="41"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="36"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="36"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="7">
         <f>ACHATS_Clôtures!$B$4</f>
         <v>678.65</v>
       </c>
-      <c r="K32" s="36"/>
+      <c r="K32" s="31"/>
       <c r="L32" s="7">
         <f>ACHATS_Clôtures!$C$4</f>
         <v>42.1</v>
       </c>
-      <c r="M32" s="36"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="7">
         <f>ACHATS_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O32" s="36"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="7">
         <f>ACHATS_Clôtures!$E$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="31"/>
       <c r="R32" s="7">
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="S32" s="36"/>
+      <c r="S32" s="31"/>
       <c r="T32" s="7">
         <f>H31</f>
         <v>47.5</v>
       </c>
-      <c r="U32" s="36"/>
+      <c r="U32" s="31"/>
       <c r="V32" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="W32" s="36"/>
-    </row>
-    <row r="33" spans="2:23" ht="14.5">
+      <c r="W32" s="31"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="36">
+      <c r="E33" s="31">
         <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="36">
+      <c r="G33" s="31">
         <f t="shared" ref="G33" si="58">F33-F34+E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="6">
         <v>700</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="31">
         <f t="shared" ref="I33" si="59">H33-H34+G33</f>
         <v>700</v>
       </c>
@@ -2913,7 +2913,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="31">
         <f t="shared" ref="K33" si="60">J33-J34+I33</f>
         <v>700</v>
       </c>
@@ -2921,7 +2921,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="31">
         <f t="shared" ref="M33" si="61">L33-L34+K33</f>
         <v>700</v>
       </c>
@@ -2929,7 +2929,7 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="31">
         <f t="shared" ref="O33" si="62">N33-N34+M33</f>
         <v>-208.32000000000005</v>
       </c>
@@ -2937,89 +2937,89 @@
         <f>API_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="31">
         <f t="shared" ref="Q33" si="63">P33-P34+O33</f>
         <v>-217.79000000000005</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="36">
+      <c r="S33" s="31">
         <f t="shared" ref="S33" si="64">R33-R34+Q33</f>
         <v>-217.79000000000005</v>
       </c>
       <c r="T33" s="6"/>
-      <c r="U33" s="36">
+      <c r="U33" s="31">
         <f t="shared" ref="U33" si="65">T33-T34+S33</f>
         <v>-917.79000000000008</v>
       </c>
       <c r="V33" s="6">
         <v>917.79</v>
       </c>
-      <c r="W33" s="36">
+      <c r="W33" s="31">
         <f t="shared" ref="W33" si="66">V33-V34+U33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.5">
+    <row r="34" spans="2:23" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="41"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="36"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="36"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="36"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>908.32</v>
       </c>
-      <c r="O34" s="36"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="7">
         <f>API_Clôtures!$E$5</f>
         <v>9.4700000000000006</v>
       </c>
-      <c r="Q34" s="36"/>
+      <c r="Q34" s="31"/>
       <c r="R34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="36"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="7">
         <f>H33</f>
         <v>700</v>
       </c>
-      <c r="U34" s="36"/>
+      <c r="U34" s="31"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="36"/>
-    </row>
-    <row r="35" spans="2:23" ht="14.5">
+      <c r="W34" s="31"/>
+    </row>
+    <row r="35" spans="2:23" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="36">
+      <c r="E35" s="31">
         <f>D35-D36</f>
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="36">
+      <c r="G35" s="31">
         <f t="shared" ref="G35" si="67">F35-F36+E35</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>1851.35</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="31">
         <f t="shared" ref="I35" si="68">H35-H36+G35</f>
         <v>1851.35</v>
       </c>
@@ -3027,7 +3027,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="31">
         <f t="shared" ref="K35" si="69">J35-J36+I35</f>
         <v>-177.05000000000018</v>
       </c>
@@ -3035,7 +3035,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>220.9</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="31">
         <f t="shared" ref="M35" si="70">L35-L36+K35</f>
         <v>43.849999999999824</v>
       </c>
@@ -3043,7 +3043,7 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>411.65</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="31">
         <f t="shared" ref="O35" si="71">N35-N36+M35</f>
         <v>20.69999999999979</v>
       </c>
@@ -3051,93 +3051,93 @@
         <f>CANARD_Clôtures!$E$4</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="31">
         <f t="shared" ref="Q35" si="72">P35-P36+O35</f>
         <v>29.99999999999979</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="36">
+      <c r="S35" s="31">
         <f t="shared" ref="S35" si="73">R35-R36+Q35</f>
         <v>29.99999999999979</v>
       </c>
       <c r="T35" s="6"/>
-      <c r="U35" s="36">
+      <c r="U35" s="31">
         <f t="shared" ref="U35" si="74">T35-T36+S35</f>
         <v>-1821.3500000000001</v>
       </c>
       <c r="V35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="W35" s="36">
+      <c r="W35" s="31">
         <f t="shared" ref="W35" si="75">V35-V36+U35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.5">
+    <row r="36" spans="2:23" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="41"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>2028.4</v>
       </c>
-      <c r="K36" s="36"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="36"/>
+      <c r="M36" s="31"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>434.8</v>
       </c>
-      <c r="O36" s="36"/>
+      <c r="O36" s="31"/>
       <c r="P36" s="7">
         <f>CANARD_Clôtures!$E$6</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="36"/>
+      <c r="Q36" s="31"/>
       <c r="R36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="S36" s="36"/>
+      <c r="S36" s="31"/>
       <c r="T36" s="7">
         <f>H35</f>
         <v>1851.35</v>
       </c>
-      <c r="U36" s="36"/>
+      <c r="U36" s="31"/>
       <c r="V36" s="7">
         <v>641.85</v>
       </c>
-      <c r="W36" s="36"/>
-    </row>
-    <row r="37" spans="2:23" ht="14.5">
+      <c r="W36" s="31"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="36">
+      <c r="E37" s="31">
         <f>D37-D38</f>
         <v>0</v>
       </c>
       <c r="F37" s="6">
         <v>3472.78</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="31">
         <f t="shared" ref="G37" si="76">F37-F38+E37</f>
         <v>3472.78</v>
       </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="31">
         <f t="shared" ref="I37" si="77">H37-H38+G37</f>
         <v>3472.78</v>
       </c>
@@ -3145,7 +3145,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>920.45</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="31">
         <f t="shared" ref="K37" si="78">J37-J38+I37</f>
         <v>3576</v>
       </c>
@@ -3153,7 +3153,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>730.98</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="31">
         <f t="shared" ref="M37" si="79">L37-L38+K37</f>
         <v>4070.46</v>
       </c>
@@ -3161,7 +3161,7 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>727.86</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="31">
         <f t="shared" ref="O37" si="80">N37-N38+M37</f>
         <v>4420.1499999999996</v>
       </c>
@@ -3169,91 +3169,91 @@
         <f>CASTOR_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="31">
         <f t="shared" ref="Q37" si="81">P37-P38+O37</f>
         <v>4406.3399999999992</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="36">
+      <c r="S37" s="31">
         <f t="shared" ref="S37" si="82">R37-R38+Q37</f>
         <v>933.55999999999904</v>
       </c>
       <c r="T37" s="6"/>
-      <c r="U37" s="36">
+      <c r="U37" s="31">
         <f t="shared" ref="U37" si="83">T37-T38+S37</f>
         <v>933.55999999999904</v>
       </c>
       <c r="V37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="W37" s="43">
+      <c r="W37" s="52">
         <f t="shared" ref="W37" si="84">V37-V38+U37</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.5">
+    <row r="38" spans="2:23" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="41"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="36"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>817.23</v>
       </c>
-      <c r="K38" s="36"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>236.52</v>
       </c>
-      <c r="M38" s="36"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>378.17</v>
       </c>
-      <c r="O38" s="36"/>
+      <c r="O38" s="31"/>
       <c r="P38" s="7">
         <f>CASTOR_Clôtures!$E$5</f>
         <v>13.81</v>
       </c>
-      <c r="Q38" s="36"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="7">
         <f>F37</f>
         <v>3472.78</v>
       </c>
-      <c r="S38" s="36"/>
+      <c r="S38" s="31"/>
       <c r="T38" s="7">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="U38" s="36"/>
+      <c r="U38" s="31"/>
       <c r="V38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="W38" s="43"/>
-    </row>
-    <row r="39" spans="2:23" ht="14.5">
+      <c r="W38" s="52"/>
+    </row>
+    <row r="39" spans="2:23" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="36">
+      <c r="E39" s="31">
         <f>D39-D40</f>
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="36">
+      <c r="G39" s="31">
         <f t="shared" ref="G39" si="85">F39-F40+E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="31">
         <f t="shared" ref="I39" si="86">H39-H40+G39</f>
         <v>0</v>
       </c>
@@ -3261,7 +3261,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="31">
         <f t="shared" ref="K39" si="87">J39-J40+I39</f>
         <v>-107.7</v>
       </c>
@@ -3269,7 +3269,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="31">
         <f t="shared" ref="M39" si="88">L39-L40+K39</f>
         <v>-107.7</v>
       </c>
@@ -3277,7 +3277,7 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="31">
         <f t="shared" ref="O39" si="89">N39-N40+M39</f>
         <v>-128.69999999999999</v>
       </c>
@@ -3285,89 +3285,89 @@
         <f>DEBOUC_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="31">
         <f t="shared" ref="Q39" si="90">P39-P40+O39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="36">
+      <c r="S39" s="31">
         <f t="shared" ref="S39" si="91">R39-R40+Q39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="T39" s="6"/>
-      <c r="U39" s="36">
+      <c r="U39" s="31">
         <f t="shared" ref="U39" si="92">T39-T40+S39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="V39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="W39" s="36">
+      <c r="W39" s="31">
         <f t="shared" ref="W39" si="93">V39-V40+U39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.5">
+    <row r="40" spans="2:23" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>107.7</v>
       </c>
-      <c r="K40" s="36"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="36"/>
+      <c r="M40" s="31"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>21</v>
       </c>
-      <c r="O40" s="36"/>
+      <c r="O40" s="31"/>
       <c r="P40" s="7">
         <f>DEBOUC_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="36"/>
+      <c r="Q40" s="31"/>
       <c r="R40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="36"/>
+      <c r="S40" s="31"/>
       <c r="T40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="U40" s="36"/>
+      <c r="U40" s="31"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="36"/>
-    </row>
-    <row r="41" spans="2:23" ht="14.5">
+      <c r="W40" s="31"/>
+    </row>
+    <row r="41" spans="2:23" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="36">
+      <c r="E41" s="31">
         <f>D41-D42</f>
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="36">
+      <c r="G41" s="31">
         <f t="shared" ref="G41" si="94">F41-F42+E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
         <v>50</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="31">
         <f t="shared" ref="I41" si="95">H41-H42+G41</f>
         <v>50</v>
       </c>
@@ -3375,7 +3375,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="31">
         <f t="shared" ref="K41" si="96">J41-J42+I41</f>
         <v>30</v>
       </c>
@@ -3383,7 +3383,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="31">
         <f t="shared" ref="M41" si="97">L41-L42+K41</f>
         <v>30</v>
       </c>
@@ -3391,7 +3391,7 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>114.95</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="31">
         <f t="shared" ref="O41" si="98">N41-N42+M41</f>
         <v>83.050000000000011</v>
       </c>
@@ -3399,91 +3399,91 @@
         <f>EVA_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="31">
         <f t="shared" ref="Q41" si="99">P41-P42+O41</f>
         <v>83.050000000000011</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="36">
+      <c r="S41" s="31">
         <f t="shared" ref="S41" si="100">R41-R42+Q41</f>
         <v>83.050000000000011</v>
       </c>
       <c r="T41" s="6"/>
-      <c r="U41" s="36">
+      <c r="U41" s="31">
         <f t="shared" ref="U41" si="101">T41-T42+S41</f>
         <v>33.050000000000011</v>
       </c>
       <c r="V41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="W41" s="36">
+      <c r="W41" s="31">
         <f t="shared" ref="W41" si="102">V41-V42+U41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.5">
+    <row r="42" spans="2:23" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="36"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>20</v>
       </c>
-      <c r="K42" s="36"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="36"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>61.9</v>
       </c>
-      <c r="O42" s="36"/>
+      <c r="O42" s="31"/>
       <c r="P42" s="7">
         <f>EVA_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="36"/>
+      <c r="Q42" s="31"/>
       <c r="R42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="S42" s="36"/>
+      <c r="S42" s="31"/>
       <c r="T42" s="7">
         <f>H41</f>
         <v>50</v>
       </c>
-      <c r="U42" s="36"/>
+      <c r="U42" s="31"/>
       <c r="V42" s="7">
         <v>114.95</v>
       </c>
-      <c r="W42" s="36"/>
-    </row>
-    <row r="43" spans="2:23" ht="14.5">
+      <c r="W42" s="31"/>
+    </row>
+    <row r="43" spans="2:23" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="36">
+      <c r="E43" s="31">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="36">
+      <c r="G43" s="31">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="31">
         <f t="shared" ref="I43" si="103">H43-H44+G43</f>
         <v>0</v>
       </c>
@@ -3491,7 +3491,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>113.1</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="31">
         <f t="shared" ref="K43" si="104">J43-J44+I43</f>
         <v>80.75</v>
       </c>
@@ -3499,7 +3499,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="31">
         <f t="shared" ref="M43" si="105">L43-L44+K43</f>
         <v>80.75</v>
       </c>
@@ -3507,7 +3507,7 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>32.450000000000003</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="31">
         <f t="shared" ref="O43" si="106">N43-N44+M43</f>
         <v>-235.65000000000003</v>
       </c>
@@ -3515,91 +3515,91 @@
         <f>EPILIBRE_Clôtures!E2</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="31">
         <f t="shared" ref="Q43" si="107">P43-P44+O43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="36">
+      <c r="S43" s="31">
         <f t="shared" ref="S43" si="108">R43-R44+Q43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="T43" s="6"/>
-      <c r="U43" s="36">
+      <c r="U43" s="31">
         <f t="shared" ref="U43" si="109">T43-T44+S43</f>
         <v>-173.35000000000002</v>
       </c>
       <c r="V43" s="6">
         <v>351.1</v>
       </c>
-      <c r="W43" s="36">
+      <c r="W43" s="31">
         <f t="shared" ref="W43:W45" si="110">V43-V44+U43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.5">
+    <row r="44" spans="2:23" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="41"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="36"/>
+      <c r="G44" s="31"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>32.35</v>
       </c>
-      <c r="K44" s="36"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="M44" s="36"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>348.85</v>
       </c>
-      <c r="O44" s="36"/>
+      <c r="O44" s="31"/>
       <c r="P44" s="7">
         <f>EPILIBRE_Clôtures!E5</f>
         <v>-62.3</v>
       </c>
-      <c r="Q44" s="36"/>
+      <c r="Q44" s="31"/>
       <c r="R44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="36"/>
+      <c r="S44" s="31"/>
       <c r="T44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="U44" s="36"/>
+      <c r="U44" s="31"/>
       <c r="V44" s="7">
         <v>177.75</v>
       </c>
-      <c r="W44" s="36"/>
-    </row>
-    <row r="45" spans="2:23" ht="14.5">
+      <c r="W44" s="31"/>
+    </row>
+    <row r="45" spans="2:23" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="41"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="36">
+      <c r="E45" s="31">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6">
         <v>3833.78</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="31">
         <f>F45-F46+E45</f>
         <v>3833.78</v>
       </c>
       <c r="H45" s="6">
         <v>0</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="31">
         <f t="shared" ref="I45" si="111">H45-H46+G45</f>
         <v>3833.78</v>
       </c>
@@ -3607,7 +3607,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>607.4</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="31">
         <f t="shared" ref="K45" si="112">J45-J46+I45</f>
         <v>4102.18</v>
       </c>
@@ -3615,7 +3615,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>559.65</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="31">
         <f t="shared" ref="M45" si="113">L45-L46+K45</f>
         <v>3902.2300000000005</v>
       </c>
@@ -3623,7 +3623,7 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>600.42999999999995</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="31">
         <f t="shared" ref="O45" si="114">N45-N46+M45</f>
         <v>4012.9800000000005</v>
       </c>
@@ -3631,91 +3631,91 @@
         <f>EPILIBRE_Clôtures!E3</f>
         <v>1.85</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="31">
         <f t="shared" ref="Q45" si="115">P45-P46+O45</f>
         <v>4014.8300000000004</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="36">
+      <c r="S45" s="31">
         <f t="shared" ref="S45" si="116">R45-R46+Q45</f>
         <v>181.05000000000018</v>
       </c>
       <c r="T45" s="6"/>
-      <c r="U45" s="36">
+      <c r="U45" s="31">
         <f t="shared" ref="U45" si="117">T45-T46+S45</f>
         <v>181.05000000000018</v>
       </c>
       <c r="V45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="W45" s="43">
+      <c r="W45" s="52">
         <f t="shared" si="110"/>
         <v>2.2737367544323206E-13</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.5">
+    <row r="46" spans="2:23" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="41"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="36"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="36"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>339</v>
       </c>
-      <c r="K46" s="36"/>
+      <c r="K46" s="31"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>759.6</v>
       </c>
-      <c r="M46" s="36"/>
+      <c r="M46" s="31"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>489.68</v>
       </c>
-      <c r="O46" s="36"/>
+      <c r="O46" s="31"/>
       <c r="P46" s="7">
         <f>EPILIBRE_Clôtures!E6</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="36"/>
+      <c r="Q46" s="31"/>
       <c r="R46" s="7">
         <f>F45</f>
         <v>3833.78</v>
       </c>
-      <c r="S46" s="36"/>
+      <c r="S46" s="31"/>
       <c r="T46" s="7">
         <f>H45</f>
         <v>0</v>
       </c>
-      <c r="U46" s="36"/>
+      <c r="U46" s="31"/>
       <c r="V46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="W46" s="43"/>
-    </row>
-    <row r="47" spans="2:23" ht="14.5">
+      <c r="W46" s="52"/>
+    </row>
+    <row r="47" spans="2:23" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="36">
+      <c r="E47" s="31">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="36">
+      <c r="G47" s="31">
         <f t="shared" ref="G47" si="118">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>44.21</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="31">
         <f t="shared" ref="I47" si="119">H47-H48+G47</f>
         <v>44.21</v>
       </c>
@@ -3723,7 +3723,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="31">
         <f t="shared" ref="K47" si="120">J47-J48+I47</f>
         <v>0</v>
       </c>
@@ -3731,7 +3731,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47" s="31">
         <f t="shared" ref="M47" si="121">L47-L48+K47</f>
         <v>-27.5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="31">
         <f t="shared" ref="O47" si="122">N47-N48+M47</f>
         <v>-27.5</v>
       </c>
@@ -3747,89 +3747,89 @@
         <f>IE_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="36">
+      <c r="Q47" s="31">
         <f t="shared" ref="Q47" si="123">P47-P48+O47</f>
         <v>-27.5</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="36">
+      <c r="S47" s="31">
         <f t="shared" ref="S47" si="124">R47-R48+Q47</f>
         <v>-27.5</v>
       </c>
       <c r="T47" s="6"/>
-      <c r="U47" s="36">
+      <c r="U47" s="31">
         <f t="shared" ref="U47" si="125">T47-T48+S47</f>
         <v>-71.710000000000008</v>
       </c>
       <c r="V47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="W47" s="36">
+      <c r="W47" s="31">
         <f t="shared" ref="W47" si="126">V47-V48+U47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.5">
+    <row r="48" spans="2:23" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="41"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="36"/>
+      <c r="G48" s="31"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="36"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>44.21</v>
       </c>
-      <c r="K48" s="36"/>
+      <c r="K48" s="31"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>27.5</v>
       </c>
-      <c r="M48" s="36"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="36"/>
+      <c r="O48" s="31"/>
       <c r="P48" s="7">
         <f>IE_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="36"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="36"/>
+      <c r="S48" s="31"/>
       <c r="T48" s="7">
         <f>H47</f>
         <v>44.21</v>
       </c>
-      <c r="U48" s="36"/>
+      <c r="U48" s="31"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="36"/>
-    </row>
-    <row r="49" spans="2:23" ht="14.5">
+      <c r="W48" s="31"/>
+    </row>
+    <row r="49" spans="2:23" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="36">
+      <c r="E49" s="31">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="36">
+      <c r="G49" s="31">
         <f t="shared" ref="G49" si="127">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="31">
         <f t="shared" ref="I49" si="128">H49-H50+G49</f>
         <v>0</v>
       </c>
@@ -3837,7 +3837,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="31">
         <f t="shared" ref="K49" si="129">J49-J50+I49</f>
         <v>-292.47000000000003</v>
       </c>
@@ -3845,7 +3845,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="31">
         <f t="shared" ref="M49" si="130">L49-L50+K49</f>
         <v>-292.47000000000003</v>
       </c>
@@ -3853,7 +3853,7 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>282.39999999999998</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49" s="31">
         <f t="shared" ref="O49" si="131">N49-N50+M49</f>
         <v>-10.07000000000005</v>
       </c>
@@ -3861,91 +3861,91 @@
         <f>LOWTECH_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="36">
+      <c r="Q49" s="31">
         <f t="shared" ref="Q49" si="132">P49-P50+O49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="36">
+      <c r="S49" s="31">
         <f t="shared" ref="S49" si="133">R49-R50+Q49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="T49" s="6"/>
-      <c r="U49" s="36">
+      <c r="U49" s="31">
         <f t="shared" ref="U49" si="134">T49-T50+S49</f>
         <v>-10.07000000000005</v>
       </c>
       <c r="V49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="W49" s="36">
+      <c r="W49" s="31">
         <f t="shared" ref="W49" si="135">V49-V50+U49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="14.5">
+    <row r="50" spans="2:23" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="41"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="36"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="36"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K50" s="36"/>
+      <c r="K50" s="31"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="36"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="36"/>
+      <c r="O50" s="31"/>
       <c r="P50" s="7">
         <f>LOWTECH_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="36"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="S50" s="36"/>
+      <c r="S50" s="31"/>
       <c r="T50" s="7">
         <f>H49</f>
         <v>0</v>
       </c>
-      <c r="U50" s="36"/>
+      <c r="U50" s="31"/>
       <c r="V50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="W50" s="36"/>
-    </row>
-    <row r="51" spans="2:23" ht="14.5">
+      <c r="W50" s="31"/>
+    </row>
+    <row r="51" spans="2:23" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="36">
+      <c r="E51" s="31">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="36">
+      <c r="G51" s="31">
         <f t="shared" ref="G51" si="136">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>818.05</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="31">
         <f t="shared" ref="I51" si="137">H51-H52+G51</f>
         <v>818.05</v>
       </c>
@@ -3953,7 +3953,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="31">
         <f t="shared" ref="K51" si="138">J51-J52+I51</f>
         <v>-100</v>
       </c>
@@ -3961,7 +3961,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="31">
         <f t="shared" ref="M51" si="139">L51-L52+K51</f>
         <v>-107.6</v>
       </c>
@@ -3969,7 +3969,7 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>212</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="31">
         <f t="shared" ref="O51" si="140">N51-N52+M51</f>
         <v>49.200000000000017</v>
       </c>
@@ -3977,191 +3977,191 @@
         <f>JARDIN_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="31">
         <f t="shared" ref="Q51" si="141">P51-P52+O51</f>
         <v>7.2500000000000142</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="36">
+      <c r="S51" s="31">
         <f t="shared" ref="S51" si="142">R51-R52+Q51</f>
         <v>7.2500000000000142</v>
       </c>
       <c r="T51" s="6"/>
-      <c r="U51" s="36">
+      <c r="U51" s="31">
         <f t="shared" ref="U51" si="143">T51-T52+S51</f>
         <v>-810.8</v>
       </c>
       <c r="V51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="W51" s="36">
+      <c r="W51" s="31">
         <f t="shared" ref="W51" si="144">V51-V52+U51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="14.5">
+    <row r="52" spans="2:23" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="41"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="36"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="36"/>
+      <c r="G52" s="31"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>918.05</v>
       </c>
-      <c r="K52" s="36"/>
+      <c r="K52" s="31"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>7.6</v>
       </c>
-      <c r="M52" s="36"/>
+      <c r="M52" s="31"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>55.2</v>
       </c>
-      <c r="O52" s="36"/>
+      <c r="O52" s="31"/>
       <c r="P52" s="7">
         <f>JARDIN_Clôtures!$E$5</f>
         <v>41.95</v>
       </c>
-      <c r="Q52" s="36"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="36"/>
+      <c r="S52" s="31"/>
       <c r="T52" s="7">
         <f>H51</f>
         <v>818.05</v>
       </c>
-      <c r="U52" s="36"/>
+      <c r="U52" s="31"/>
       <c r="V52" s="7">
         <v>212</v>
       </c>
-      <c r="W52" s="36"/>
-    </row>
-    <row r="53" spans="2:23" ht="14.5">
+      <c r="W52" s="31"/>
+    </row>
+    <row r="53" spans="2:23" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="36">
+      <c r="E53" s="31">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="36">
+      <c r="G53" s="31">
         <f t="shared" ref="G53" si="145">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="31">
         <f t="shared" ref="I53" si="146">H53-H54+G53</f>
         <v>0</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="36">
+      <c r="K53" s="31">
         <f t="shared" ref="K53" si="147">J53-J54+I53</f>
         <v>-766.33</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="36">
+      <c r="M53" s="31">
         <f t="shared" ref="M53" si="148">L53-L54+K53</f>
         <v>-1179.1200000000001</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="36">
+      <c r="O53" s="31">
         <f t="shared" ref="O53" si="149">N53-N54+M53</f>
         <v>-1229.1200000000001</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="36">
+      <c r="Q53" s="31">
         <f t="shared" ref="Q53" si="150">P53-P54+O53</f>
         <v>-1456.25</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="36">
+      <c r="S53" s="31">
         <f t="shared" ref="S53" si="151">R53-R54+Q53</f>
         <v>-1456.25</v>
       </c>
       <c r="T53" s="6"/>
-      <c r="U53" s="36">
+      <c r="U53" s="31">
         <f t="shared" ref="U53" si="152">T53-T54+S53</f>
         <v>-1456.25</v>
       </c>
       <c r="V53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="W53" s="36">
+      <c r="W53" s="31">
         <f t="shared" ref="W53" si="153">V53-V54+U53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="14.5">
+    <row r="54" spans="2:23" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="41"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="36"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="36"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="36"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$4</f>
         <v>766.33</v>
       </c>
-      <c r="K54" s="36"/>
+      <c r="K54" s="31"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$4</f>
         <v>412.79</v>
       </c>
-      <c r="M54" s="36"/>
+      <c r="M54" s="31"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$4</f>
         <v>50</v>
       </c>
-      <c r="O54" s="36"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="7">
         <f>MEUBLE_Clôtures!$E$4</f>
         <v>227.13</v>
       </c>
-      <c r="Q54" s="36"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="36"/>
+      <c r="S54" s="31"/>
       <c r="T54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="U54" s="36"/>
+      <c r="U54" s="31"/>
       <c r="V54" s="7"/>
-      <c r="W54" s="36"/>
-    </row>
-    <row r="55" spans="2:23" ht="14.5">
+      <c r="W54" s="31"/>
+    </row>
+    <row r="55" spans="2:23" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="41"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="36">
+      <c r="E55" s="31">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="36">
+      <c r="G55" s="31">
         <f t="shared" ref="G55" si="154">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="31">
         <f t="shared" ref="I55" si="155">H55-H56+G55</f>
         <v>0</v>
       </c>
@@ -4169,7 +4169,7 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="31">
         <f t="shared" ref="K55" si="156">J55-J56+I55</f>
         <v>-35</v>
       </c>
@@ -4177,7 +4177,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>629.20000000000005</v>
       </c>
-      <c r="M55" s="36">
+      <c r="M55" s="31">
         <f t="shared" ref="M55" si="157">L55-L56+K55</f>
         <v>124.20000000000005</v>
       </c>
@@ -4185,7 +4185,7 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="31">
         <f t="shared" ref="O55" si="158">N55-N56+M55</f>
         <v>124.20000000000005</v>
       </c>
@@ -4193,91 +4193,91 @@
         <f>MEUBLE_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="31">
         <f t="shared" ref="Q55" si="159">P55-P56+O55</f>
         <v>-915.8</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="36">
+      <c r="S55" s="31">
         <f t="shared" ref="S55" si="160">R55-R56+Q55</f>
         <v>-915.8</v>
       </c>
       <c r="T55" s="6"/>
-      <c r="U55" s="36">
+      <c r="U55" s="31">
         <f t="shared" ref="U55" si="161">T55-T56+S55</f>
         <v>-915.8</v>
       </c>
       <c r="V55" s="6">
         <v>1545</v>
       </c>
-      <c r="W55" s="36">
+      <c r="W55" s="31">
         <f t="shared" ref="W55" si="162">V55-V56+U55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" ht="14.5">
+    <row r="56" spans="2:23" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="41"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="36"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="36"/>
+      <c r="G56" s="31"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>35</v>
       </c>
-      <c r="K56" s="36"/>
+      <c r="K56" s="31"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>470</v>
       </c>
-      <c r="M56" s="36"/>
+      <c r="M56" s="31"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O56" s="36"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="7">
         <f>MEUBLE_Clôtures!$E$5</f>
         <v>1040</v>
       </c>
-      <c r="Q56" s="36"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="S56" s="36"/>
+      <c r="S56" s="31"/>
       <c r="T56" s="7">
         <f>H55</f>
         <v>0</v>
       </c>
-      <c r="U56" s="36"/>
+      <c r="U56" s="31"/>
       <c r="V56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="W56" s="36"/>
-    </row>
-    <row r="57" spans="2:23" ht="14.5">
+      <c r="W56" s="31"/>
+    </row>
+    <row r="57" spans="2:23" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="36">
+      <c r="E57" s="31">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="36">
+      <c r="G57" s="31">
         <f t="shared" ref="G57" si="163">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="31">
         <f t="shared" ref="I57" si="164">H57-H58+G57</f>
         <v>0</v>
       </c>
@@ -4285,7 +4285,7 @@
         <f>DUDU_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="31">
         <f t="shared" ref="K57" si="165">J57-J58+I57</f>
         <v>-41.25</v>
       </c>
@@ -4293,7 +4293,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>3000</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="31">
         <f t="shared" ref="M57" si="166">L57-L58+K57</f>
         <v>-989.7800000000002</v>
       </c>
@@ -4301,7 +4301,7 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>3506.55</v>
       </c>
-      <c r="O57" s="36">
+      <c r="O57" s="31">
         <f t="shared" ref="O57" si="167">N57-N58+M57</f>
         <v>0</v>
       </c>
@@ -4309,191 +4309,191 @@
         <f>DUDU_Clôtures!$E$3</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="36">
+      <c r="Q57" s="31">
         <f t="shared" ref="Q57" si="168">P57-P58+O57</f>
         <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="36">
+      <c r="S57" s="31">
         <f t="shared" ref="S57" si="169">R57-R58+Q57</f>
         <v>0</v>
       </c>
       <c r="T57" s="6"/>
-      <c r="U57" s="36">
+      <c r="U57" s="31">
         <f t="shared" ref="U57" si="170">T57-T58+S57</f>
         <v>0</v>
       </c>
       <c r="V57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="W57" s="36">
+      <c r="W57" s="31">
         <f t="shared" ref="W57" si="171">V57-V58+U57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="14.5">
+    <row r="58" spans="2:23" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="41"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="36"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="36"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>41.25</v>
       </c>
-      <c r="K58" s="36"/>
+      <c r="K58" s="31"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>3948.53</v>
       </c>
-      <c r="M58" s="36"/>
+      <c r="M58" s="31"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>2516.77</v>
       </c>
-      <c r="O58" s="36"/>
+      <c r="O58" s="31"/>
       <c r="P58" s="7">
         <f>DUDU_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="36"/>
+      <c r="Q58" s="31"/>
       <c r="R58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="S58" s="36"/>
+      <c r="S58" s="31"/>
       <c r="T58" s="7">
         <f>H57</f>
         <v>0</v>
       </c>
-      <c r="U58" s="36"/>
+      <c r="U58" s="31"/>
       <c r="V58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="W58" s="36"/>
-    </row>
-    <row r="59" spans="2:23" ht="14.5">
+      <c r="W58" s="31"/>
+    </row>
+    <row r="59" spans="2:23" ht="15.5">
       <c r="B59" s="10"/>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="36">
+      <c r="E59" s="31">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="36">
+      <c r="G59" s="31">
         <f t="shared" ref="G59" si="172">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>0</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="31">
         <f>H59-H60+G59</f>
         <v>0</v>
       </c>
       <c r="J59" s="6"/>
-      <c r="K59" s="36">
+      <c r="K59" s="31">
         <f t="shared" ref="K59" si="173">J59-J60+I59</f>
         <v>-850.1</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="36">
+      <c r="M59" s="31">
         <f t="shared" ref="M59" si="174">L59-L60+K59</f>
         <v>-1012.83</v>
       </c>
       <c r="N59" s="6"/>
-      <c r="O59" s="36">
+      <c r="O59" s="31">
         <f t="shared" ref="O59" si="175">N59-N60+M59</f>
         <v>-1497.48</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="36">
+      <c r="Q59" s="31">
         <f>P59-P60+O59</f>
         <v>-1576.53</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="36">
+      <c r="S59" s="31">
         <f t="shared" ref="S59" si="176">R59-R60+Q59</f>
         <v>-1576.53</v>
       </c>
       <c r="T59" s="6"/>
-      <c r="U59" s="36">
+      <c r="U59" s="31">
         <f>T59-T60+S59</f>
         <v>-1576.53</v>
       </c>
       <c r="V59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="W59" s="36">
+      <c r="W59" s="31">
         <f t="shared" ref="W59" si="177">V59-V60+U59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="14.5">
+    <row r="60" spans="2:23" ht="15.5">
       <c r="B60" s="10"/>
-      <c r="C60" s="41"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="36"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="36"/>
+      <c r="G60" s="31"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="31"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$4</f>
         <v>850.1</v>
       </c>
-      <c r="K60" s="36"/>
+      <c r="K60" s="31"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$4</f>
         <v>162.72999999999999</v>
       </c>
-      <c r="M60" s="36"/>
+      <c r="M60" s="31"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$4</f>
         <v>484.65</v>
       </c>
-      <c r="O60" s="36"/>
+      <c r="O60" s="31"/>
       <c r="P60" s="7">
         <f>UPFL_Clôtures!$E$4</f>
         <v>79.05</v>
       </c>
-      <c r="Q60" s="36"/>
+      <c r="Q60" s="31"/>
       <c r="R60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="S60" s="36"/>
+      <c r="S60" s="31"/>
       <c r="T60" s="7">
         <f>H59</f>
         <v>0</v>
       </c>
-      <c r="U60" s="36"/>
+      <c r="U60" s="31"/>
       <c r="V60" s="7"/>
-      <c r="W60" s="36"/>
-    </row>
-    <row r="61" spans="2:23" ht="14.5">
+      <c r="W60" s="31"/>
+    </row>
+    <row r="61" spans="2:23" ht="15.5">
       <c r="B61" s="10"/>
-      <c r="C61" s="41"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="36">
+      <c r="E61" s="31">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="36">
+      <c r="G61" s="31">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="31">
         <f>H61-H62+G61</f>
         <v>0</v>
       </c>
@@ -4501,7 +4501,7 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>906</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="31">
         <f>J61-J62+I61</f>
         <v>906</v>
       </c>
@@ -4509,7 +4509,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>1003</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="31">
         <f>L61-L62+K61</f>
         <v>1909</v>
       </c>
@@ -4517,7 +4517,7 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>305.67</v>
       </c>
-      <c r="O61" s="36">
+      <c r="O61" s="31">
         <f>N61-N62+M61</f>
         <v>2214.67</v>
       </c>
@@ -4525,163 +4525,457 @@
         <f>UPFL_Clôtures!$E$2</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="31">
         <f>P61-P62+O61</f>
         <v>2214.67</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="36">
+      <c r="S61" s="31">
         <f>R61-R62+Q61</f>
         <v>2214.67</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="36">
+      <c r="U61" s="31">
         <f>T61-T62+S61</f>
         <v>2214.67</v>
       </c>
       <c r="V61" s="6"/>
-      <c r="W61" s="36">
+      <c r="W61" s="31">
         <f>V61-V62+U61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" ht="14.5">
+    <row r="62" spans="2:23" ht="15.5">
       <c r="B62" s="10"/>
-      <c r="C62" s="41"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="36"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="36"/>
+      <c r="G62" s="31"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K62" s="36"/>
+      <c r="K62" s="31"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M62" s="36"/>
+      <c r="M62" s="31"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O62" s="36"/>
+      <c r="O62" s="31"/>
       <c r="P62" s="7">
         <f>UPFL_Clôtures!$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="36"/>
+      <c r="Q62" s="31"/>
       <c r="R62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="S62" s="36"/>
+      <c r="S62" s="31"/>
       <c r="T62" s="7">
         <f>H61</f>
         <v>0</v>
       </c>
-      <c r="U62" s="36"/>
+      <c r="U62" s="31"/>
       <c r="V62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="W62" s="36"/>
+      <c r="W62" s="31"/>
     </row>
     <row r="63" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="31">
+      <c r="C63" s="49"/>
+      <c r="D63" s="33">
         <f>E5+E7+E29</f>
         <v>16225.66</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31">
+      <c r="E63" s="33"/>
+      <c r="F63" s="33">
         <f>G5+G7+G29</f>
         <v>16225.66</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31">
+      <c r="G63" s="33"/>
+      <c r="H63" s="33">
         <f>I5+I7+I29</f>
         <v>16225.66</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31">
+      <c r="I63" s="33"/>
+      <c r="J63" s="33">
         <f>K5+K7+K29</f>
         <v>10188.869999999999</v>
       </c>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31">
+      <c r="K63" s="33"/>
+      <c r="L63" s="33">
         <f>M5+M7+M29</f>
         <v>14108.309999999998</v>
       </c>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31">
+      <c r="M63" s="33"/>
+      <c r="N63" s="33">
         <f>O5+O7+O29</f>
         <v>20099.569999999996</v>
       </c>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31">
+      <c r="O63" s="33"/>
+      <c r="P63" s="33">
         <f>Q5+Q7+Q29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31">
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33">
         <f>S5+S7+S29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31">
+      <c r="S63" s="33"/>
+      <c r="T63" s="33">
         <f>U5+U7+U29</f>
-        <v>18439.689999999999</v>
-      </c>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31">
+        <v>18439.690000000002</v>
+      </c>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33">
         <f>W5+W7+W29</f>
         <v>18439.689999999999</v>
       </c>
-      <c r="W63" s="31"/>
+      <c r="W63" s="33"/>
     </row>
     <row r="64" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="340">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="R63:S64"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P63:Q64"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="N63:O64"/>
     <mergeCell ref="V63:W64"/>
     <mergeCell ref="C25:C26"/>
@@ -4706,311 +5000,17 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="R63:S64"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5030,7 +5030,7 @@
     <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5178,7 +5178,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5380,7 +5380,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5582,7 +5582,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="26" t="s">
         <v>81</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>374.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="26" t="s">
         <v>82</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -5805,7 +5805,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6007,7 +6007,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6209,7 +6209,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6279,7 +6279,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6411,7 +6411,7 @@
     <col min="1" max="1" width="48.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>177.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>79</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -6657,7 +6657,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -6859,7 +6859,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6929,7 +6929,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -7062,7 +7062,7 @@
     <col min="6" max="6" width="11.54296875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="15">
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -7247,7 +7247,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="15.5">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -7319,7 +7319,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -7521,7 +7521,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
@@ -7564,7 +7564,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -7746,7 +7746,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -7816,7 +7816,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -7948,7 +7948,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -8173,7 +8173,7 @@
     <col min="1" max="1" width="37.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8375,7 +8375,7 @@
     <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>47</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8558,7 +8558,7 @@
     <col min="1" max="1" width="53.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -8716,7 +8716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE9F06-57C6-42DF-B631-CFF41A00053B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8725,7 +8725,7 @@
     <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>56</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="15.5">
       <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="15.5">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="15.5">
       <c r="A11" s="12" t="s">
         <v>72</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="15.5">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -9015,10 +9015,10 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.5">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="15.5">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
@@ -9040,7 +9040,7 @@
     <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9232,7 +9232,7 @@
     <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>67</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>68</v>
       </c>
@@ -9321,7 +9321,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
@@ -9394,7 +9394,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="15.5">
       <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
@@ -9440,7 +9440,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="15.5">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="15.5">
       <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="15.5">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -9568,7 +9568,7 @@
     <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9751,7 +9751,7 @@
     <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>76</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>77</v>
       </c>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>78</v>
       </c>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
